--- a/ToDoList.xlsx
+++ b/ToDoList.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="12">
   <si>
     <t>인프런 버전관리 시스템 Git</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -66,6 +66,10 @@
   </si>
   <si>
     <t>Unit5. 변수 만들기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.2 변수 여러 개를 한 번에 선언하기</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -171,9 +175,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -182,6 +183,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -466,7 +470,7 @@
   <dimension ref="A2:G35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -488,94 +492,96 @@
     </row>
     <row r="3" spans="1:7" ht="5.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="2"/>
-      <c r="B5" s="4" t="s">
+      <c r="A5" s="5"/>
+      <c r="B5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
+      <c r="C5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="2"/>
-      <c r="B7" s="4" t="s">
+      <c r="A7" s="5"/>
+      <c r="B7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="2"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
+      <c r="A9" s="5"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="2"/>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
+      <c r="A11" s="5"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B14" s="1"/>
@@ -587,84 +593,84 @@
     </row>
     <row r="15" spans="1:7" ht="5.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="2" t="s">
+      <c r="A16" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="2"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
+      <c r="A17" s="5"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" s="2" t="s">
+      <c r="A18" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" s="2"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
+      <c r="A19" s="5"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" s="2" t="s">
+      <c r="A20" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21" s="2"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
-      <c r="G21" s="4"/>
+      <c r="A21" s="5"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22" s="2" t="s">
+      <c r="A22" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="4"/>
-      <c r="G22" s="4"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23" s="2"/>
-      <c r="B23" s="5"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="5"/>
+      <c r="A23" s="5"/>
+      <c r="B23" s="4"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B26" s="1"/>
@@ -676,87 +682,92 @@
     </row>
     <row r="27" spans="1:7" ht="5.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A28" s="2" t="s">
+      <c r="A28" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A29" s="2"/>
-      <c r="B29" s="4"/>
-      <c r="C29" s="4"/>
-      <c r="D29" s="4"/>
-      <c r="E29" s="4"/>
-      <c r="F29" s="4"/>
-      <c r="G29" s="4"/>
+      <c r="A29" s="5"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A30" s="2" t="s">
+      <c r="A30" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B30" s="4"/>
-      <c r="C30" s="4"/>
-      <c r="D30" s="4"/>
-      <c r="E30" s="4"/>
-      <c r="F30" s="4"/>
-      <c r="G30" s="4"/>
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A31" s="2"/>
-      <c r="B31" s="4"/>
-      <c r="C31" s="4"/>
-      <c r="D31" s="4"/>
-      <c r="E31" s="4"/>
-      <c r="F31" s="4"/>
-      <c r="G31" s="4"/>
+      <c r="A31" s="5"/>
+      <c r="B31" s="3"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="3"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A32" s="2" t="s">
+      <c r="A32" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B32" s="4"/>
-      <c r="C32" s="4"/>
-      <c r="D32" s="4"/>
-      <c r="E32" s="4"/>
-      <c r="F32" s="4"/>
-      <c r="G32" s="4"/>
+      <c r="B32" s="3"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="3"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A33" s="2"/>
-      <c r="B33" s="4"/>
-      <c r="C33" s="4"/>
-      <c r="D33" s="4"/>
-      <c r="E33" s="4"/>
-      <c r="F33" s="4"/>
-      <c r="G33" s="4"/>
+      <c r="A33" s="5"/>
+      <c r="B33" s="3"/>
+      <c r="C33" s="3"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="3"/>
+      <c r="G33" s="3"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A34" s="2" t="s">
+      <c r="A34" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B34" s="4"/>
-      <c r="C34" s="4"/>
-      <c r="D34" s="4"/>
-      <c r="E34" s="4"/>
-      <c r="F34" s="4"/>
-      <c r="G34" s="4"/>
+      <c r="B34" s="3"/>
+      <c r="C34" s="3"/>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="3"/>
+      <c r="G34" s="3"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A35" s="2"/>
-      <c r="B35" s="5"/>
-      <c r="C35" s="5"/>
-      <c r="D35" s="5"/>
-      <c r="E35" s="5"/>
-      <c r="F35" s="5"/>
-      <c r="G35" s="5"/>
+      <c r="A35" s="5"/>
+      <c r="B35" s="4"/>
+      <c r="C35" s="4"/>
+      <c r="D35" s="4"/>
+      <c r="E35" s="4"/>
+      <c r="F35" s="4"/>
+      <c r="G35" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A16:A17"/>
     <mergeCell ref="A34:A35"/>
     <mergeCell ref="A18:A19"/>
     <mergeCell ref="A20:A21"/>
@@ -764,11 +775,6 @@
     <mergeCell ref="A28:A29"/>
     <mergeCell ref="A30:A31"/>
     <mergeCell ref="A32:A33"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A16:A17"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ToDoList.xlsx
+++ b/ToDoList.xlsx
@@ -38,9 +38,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>여러 개의 파일을 버전으로 만들기</t>
-  </si>
-  <si>
     <t>Task2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -70,6 +67,10 @@
   </si>
   <si>
     <t>5.2 변수 여러 개를 한 번에 선언하기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>삭제 - git reset</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -470,7 +471,7 @@
   <dimension ref="A2:G35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -483,7 +484,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
@@ -499,7 +500,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
@@ -509,10 +510,10 @@
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="5"/>
       <c r="B5" s="3" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
@@ -521,10 +522,10 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
@@ -535,7 +536,7 @@
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="5"/>
       <c r="B7" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
@@ -545,7 +546,7 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -565,7 +566,7 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -614,7 +615,7 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -634,7 +635,7 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -654,7 +655,7 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -703,7 +704,7 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
@@ -723,7 +724,7 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
@@ -743,7 +744,7 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
@@ -763,11 +764,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A16:A17"/>
     <mergeCell ref="A34:A35"/>
     <mergeCell ref="A18:A19"/>
     <mergeCell ref="A20:A21"/>
@@ -775,6 +771,11 @@
     <mergeCell ref="A28:A29"/>
     <mergeCell ref="A30:A31"/>
     <mergeCell ref="A32:A33"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A16:A17"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ToDoList.xlsx
+++ b/ToDoList.xlsx
@@ -34,10 +34,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>GIT2-CLI 버전관리편</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Task2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -70,7 +66,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>삭제 - git reset</t>
+    <t>GIT3-CLI 백업</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>push</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -484,7 +484,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
@@ -497,10 +497,10 @@
         <v>1</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
@@ -513,7 +513,7 @@
         <v>11</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
@@ -522,10 +522,10 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
@@ -536,7 +536,7 @@
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="5"/>
       <c r="B7" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
@@ -546,7 +546,7 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -566,7 +566,7 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -615,7 +615,7 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -635,7 +635,7 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -655,7 +655,7 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -704,7 +704,7 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
@@ -724,7 +724,7 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
@@ -744,7 +744,7 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
@@ -764,6 +764,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A16:A17"/>
     <mergeCell ref="A34:A35"/>
     <mergeCell ref="A18:A19"/>
     <mergeCell ref="A20:A21"/>
@@ -771,11 +776,6 @@
     <mergeCell ref="A28:A29"/>
     <mergeCell ref="A30:A31"/>
     <mergeCell ref="A32:A33"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A16:A17"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ToDoList.xlsx
+++ b/ToDoList.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\02_GitRepoTortoise\01_Doc\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\works\04_Git\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71CF6BEE-4F6B-414F-9819-858C8B2B5E3C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,10 +35,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>GIT2-CLI 버전관리편</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Task2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -70,14 +67,18 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>삭제 - git reset</t>
+    <t>GIT3-CLI 백업</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Push</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -467,11 +468,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:G35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -484,7 +485,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
@@ -497,10 +498,10 @@
         <v>1</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
@@ -513,7 +514,7 @@
         <v>11</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
@@ -522,31 +523,31 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
+        <v>2</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="5"/>
-      <c r="B7" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
+      <c r="B7" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -566,14 +567,14 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
+        <v>4</v>
+      </c>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="5"/>
@@ -615,7 +616,7 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -635,7 +636,7 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -655,7 +656,7 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -704,7 +705,7 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
@@ -724,7 +725,7 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
@@ -744,7 +745,7 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
@@ -764,6 +765,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A16:A17"/>
     <mergeCell ref="A34:A35"/>
     <mergeCell ref="A18:A19"/>
     <mergeCell ref="A20:A21"/>
@@ -771,11 +777,6 @@
     <mergeCell ref="A28:A29"/>
     <mergeCell ref="A30:A31"/>
     <mergeCell ref="A32:A33"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A16:A17"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ToDoList.xlsx
+++ b/ToDoList.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\works\04_Git\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71CF6BEE-4F6B-414F-9819-858C8B2B5E3C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F67D41E-ADF0-429D-9E71-0913A16F0F44}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="14">
   <si>
     <t>인프런 버전관리 시스템 Git</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -67,11 +67,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>GIT3-CLI 백업</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Push</t>
+    <t>YouTube-생활코딩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GIT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>버전관리란 무엇일까요?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인프런 지옥에서 온 Git</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -472,7 +480,7 @@
   <dimension ref="A2:G35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -487,8 +495,12 @@
       <c r="C2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
+      <c r="D2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
@@ -498,25 +510,29 @@
         <v>1</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="2"/>
+      <c r="D4" s="2" t="s">
+        <v>11</v>
+      </c>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="5"/>
-      <c r="B5" s="3" t="s">
-        <v>11</v>
+      <c r="B5" s="4" t="s">
+        <v>6</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="3"/>
+      <c r="D5" s="3" t="s">
+        <v>12</v>
+      </c>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
@@ -525,9 +541,7 @@
       <c r="A6" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>5</v>
-      </c>
+      <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -536,9 +550,7 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="5"/>
-      <c r="B7" s="4" t="s">
-        <v>6</v>
-      </c>
+      <c r="B7" s="4"/>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
@@ -765,11 +777,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A16:A17"/>
     <mergeCell ref="A34:A35"/>
     <mergeCell ref="A18:A19"/>
     <mergeCell ref="A20:A21"/>
@@ -777,6 +784,11 @@
     <mergeCell ref="A28:A29"/>
     <mergeCell ref="A30:A31"/>
     <mergeCell ref="A32:A33"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A16:A17"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ToDoList.xlsx
+++ b/ToDoList.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\works\04_Git\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\02_GitRepoTortoise\01_Doc\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F67D41E-ADF0-429D-9E71-0913A16F0F44}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="ToDo" sheetId="1" r:id="rId1"/>
+    <sheet name="MAP" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="65">
   <si>
     <t>인프런 버전관리 시스템 Git</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -80,14 +80,218 @@
   </si>
   <si>
     <t>인프런 지옥에서 온 Git</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Massive Action Plan</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>What</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Why</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>By When</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Description of Massive Action to be taken</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Action steps</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Potentional Barriers</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Result</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Positive affirmation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>영어 훈련 1단계를 완성한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>원어민들과 자유롭고 행복하게 영어로 대화하고 싶다. 직장에서도 영어가 나의 무기가 된다. 영어로 멋있게 프레젠테이션 할 수 있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018년 9월 30일까지 완성한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 기상시간 5시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>알람을 꺼버릴 수 있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>알람을 3개 켜자.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일어나서 바로 샤워하자.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2. 음소단위 하루 3개</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">   훈련</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>귀찮아서 안할 수 있으니 씻기 전에 거울 보면서</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>연습한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3. 하루 영화 20문장 소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">   리 분석 훈련</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>각 문장마다 편해질 때까지 반복 연습, 적어도 한 문</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>장 10번 이상.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4. 한글 보고 영어로 말</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">   하기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>훈련한 소리 그대로 반복해서 영어로 말한다. 5번 이</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상 반복한다. 암기하려고 애쓰지 않는다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5. MP3 파일 따라 듣고</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">   다니기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>하루 종일 연습한 소리를 듣고 따라한다. 통근 길에,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>점심 먹고 30분 동안, 적어도 1시간 짬을 낸다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N 바빠서 시간이 없었다. 다음에는 먼저 해야지.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6. 전에 훈련한 문장 체</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">   화 복습</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>한글을 보고 영어로 말한다. 헷갈리는 문장은 다시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>소리 연습한다. 3번.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. I am great and wonderful.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2. I am the architect of my life.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3. I am superior to negative thoughts and low actions.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[Example]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -103,16 +307,50 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -172,13 +410,94 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -196,6 +515,99 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -476,10 +888,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:G35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
@@ -777,6 +1189,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A16:A17"/>
     <mergeCell ref="A34:A35"/>
     <mergeCell ref="A18:A19"/>
     <mergeCell ref="A20:A21"/>
@@ -784,14 +1201,426 @@
     <mergeCell ref="A28:A29"/>
     <mergeCell ref="A30:A31"/>
     <mergeCell ref="A32:A33"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A16:A17"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G29"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="19.75" customWidth="1"/>
+    <col min="2" max="2" width="44.25" customWidth="1"/>
+    <col min="3" max="3" width="18.25" customWidth="1"/>
+    <col min="5" max="5" width="19.75" customWidth="1"/>
+    <col min="6" max="6" width="44.25" customWidth="1"/>
+    <col min="7" max="7" width="18.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="19"/>
+      <c r="C2" s="20"/>
+      <c r="E2" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="19"/>
+      <c r="G2" s="20"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="E3" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="16">
+        <v>43282</v>
+      </c>
+      <c r="G3" s="9"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="E4" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="G4" s="9"/>
+    </row>
+    <row r="5" spans="1:7" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="17"/>
+      <c r="C5" s="17"/>
+      <c r="E5" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="G5" s="17"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="9"/>
+      <c r="C6" s="9"/>
+      <c r="E6" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="G6" s="9"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="23"/>
+      <c r="C7" s="24"/>
+      <c r="E7" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" s="23"/>
+      <c r="G7" s="24"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="F8" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="G8" s="26" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="E9" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G9" s="31" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="8"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G10" s="32"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="7"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="G11" s="33"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="E12" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G12" s="31" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="8"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="E13" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G13" s="32"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" s="7"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="33"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B15" s="6"/>
+      <c r="C15" s="2"/>
+      <c r="E15" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="G15" s="31" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" s="8"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="3"/>
+      <c r="E16" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="G16" s="32"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" s="7"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="4"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="33"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="E18" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="G18" s="31" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" s="8"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="E19" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="G19" s="32"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" s="7"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="33"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="E21" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="G21" s="34" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22" s="8"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="E22" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="G22" s="35"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23" s="7"/>
+      <c r="B23" s="4"/>
+      <c r="C23" s="4"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="36"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="E24" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G24" s="31" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25" s="3"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="E25" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="G25" s="32"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A26" s="4"/>
+      <c r="B26" s="4"/>
+      <c r="C26" s="4"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="33"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A27" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="B27" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C27" s="11"/>
+      <c r="E27" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="F27" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="G27" s="11"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A28" s="29"/>
+      <c r="B28" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="C28" s="15"/>
+      <c r="E28" s="29"/>
+      <c r="F28" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="G28" s="15"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A29" s="30"/>
+      <c r="B29" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C29" s="13"/>
+      <c r="E29" s="30"/>
+      <c r="F29" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="G29" s="13"/>
+    </row>
+  </sheetData>
+  <mergeCells count="26">
+    <mergeCell ref="E27:E29"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="G9:G11"/>
+    <mergeCell ref="G12:G14"/>
+    <mergeCell ref="G15:G17"/>
+    <mergeCell ref="G18:G20"/>
+    <mergeCell ref="G21:G23"/>
+    <mergeCell ref="G24:G26"/>
+    <mergeCell ref="A27:A29"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="A7:C7"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="A9 A12 A15 A18 A21 A24 B27:B29" numberStoredAsText="1"/>
+  </ignoredErrors>
+</worksheet>
 </file>
--- a/ToDoList.xlsx
+++ b/ToDoList.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="67">
   <si>
     <t>인프런 버전관리 시스템 Git</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -51,10 +51,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>버전생성(commit, show log)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>C언어 코딩도장</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -123,34 +119,30 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>3.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Positive affirmation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>2.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>3.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Positive affirmation</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>영어 훈련 1단계를 완성한다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -284,6 +276,22 @@
   </si>
   <si>
     <t>[Example]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>버전 아이디</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. Cake</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">   Conversation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2. JoJoTalk</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -513,101 +521,101 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -892,7 +900,7 @@
   <dimension ref="A2:G35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -905,52 +913,52 @@
         <v>0</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7" ht="5.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="11" t="s">
         <v>1</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="5"/>
+      <c r="A5" s="11"/>
       <c r="B5" s="4" t="s">
-        <v>6</v>
+        <v>63</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="11" t="s">
         <v>2</v>
       </c>
       <c r="B6" s="2"/>
@@ -961,7 +969,7 @@
       <c r="G6" s="2"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="5"/>
+      <c r="A7" s="11"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
@@ -970,7 +978,7 @@
       <c r="G7" s="4"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="11" t="s">
         <v>3</v>
       </c>
       <c r="B8" s="3"/>
@@ -981,7 +989,7 @@
       <c r="G8" s="3"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="5"/>
+      <c r="A9" s="11"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
@@ -990,7 +998,7 @@
       <c r="G9" s="3"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="11" t="s">
         <v>4</v>
       </c>
       <c r="B10" s="2"/>
@@ -1001,7 +1009,7 @@
       <c r="G10" s="2"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="5"/>
+      <c r="A11" s="11"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
@@ -1019,7 +1027,7 @@
     </row>
     <row r="15" spans="1:7" ht="5.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="5" t="s">
+      <c r="A16" s="11" t="s">
         <v>1</v>
       </c>
       <c r="B16" s="2"/>
@@ -1030,7 +1038,7 @@
       <c r="G16" s="2"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="5"/>
+      <c r="A17" s="11"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
@@ -1039,7 +1047,7 @@
       <c r="G17" s="3"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" s="5" t="s">
+      <c r="A18" s="11" t="s">
         <v>2</v>
       </c>
       <c r="B18" s="3"/>
@@ -1050,7 +1058,7 @@
       <c r="G18" s="3"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" s="5"/>
+      <c r="A19" s="11"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
@@ -1059,7 +1067,7 @@
       <c r="G19" s="3"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" s="5" t="s">
+      <c r="A20" s="11" t="s">
         <v>3</v>
       </c>
       <c r="B20" s="3"/>
@@ -1070,7 +1078,7 @@
       <c r="G20" s="3"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21" s="5"/>
+      <c r="A21" s="11"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
@@ -1079,7 +1087,7 @@
       <c r="G21" s="3"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22" s="5" t="s">
+      <c r="A22" s="11" t="s">
         <v>4</v>
       </c>
       <c r="B22" s="3"/>
@@ -1090,7 +1098,7 @@
       <c r="G22" s="3"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23" s="5"/>
+      <c r="A23" s="11"/>
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
       <c r="D23" s="4"/>
@@ -1108,7 +1116,7 @@
     </row>
     <row r="27" spans="1:7" ht="5.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A28" s="5" t="s">
+      <c r="A28" s="11" t="s">
         <v>1</v>
       </c>
       <c r="B28" s="2"/>
@@ -1119,7 +1127,7 @@
       <c r="G28" s="2"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A29" s="5"/>
+      <c r="A29" s="11"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
@@ -1128,7 +1136,7 @@
       <c r="G29" s="3"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A30" s="5" t="s">
+      <c r="A30" s="11" t="s">
         <v>2</v>
       </c>
       <c r="B30" s="3"/>
@@ -1139,7 +1147,7 @@
       <c r="G30" s="3"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A31" s="5"/>
+      <c r="A31" s="11"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
@@ -1148,7 +1156,7 @@
       <c r="G31" s="3"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A32" s="5" t="s">
+      <c r="A32" s="11" t="s">
         <v>3</v>
       </c>
       <c r="B32" s="3"/>
@@ -1159,7 +1167,7 @@
       <c r="G32" s="3"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A33" s="5"/>
+      <c r="A33" s="11"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
       <c r="D33" s="3"/>
@@ -1168,7 +1176,7 @@
       <c r="G33" s="3"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A34" s="5" t="s">
+      <c r="A34" s="11" t="s">
         <v>4</v>
       </c>
       <c r="B34" s="3"/>
@@ -1179,7 +1187,7 @@
       <c r="G34" s="3"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A35" s="5"/>
+      <c r="A35" s="11"/>
       <c r="B35" s="4"/>
       <c r="C35" s="4"/>
       <c r="D35" s="4"/>
@@ -1189,11 +1197,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A16:A17"/>
     <mergeCell ref="A34:A35"/>
     <mergeCell ref="A18:A19"/>
     <mergeCell ref="A20:A21"/>
@@ -1201,6 +1204,11 @@
     <mergeCell ref="A28:A29"/>
     <mergeCell ref="A30:A31"/>
     <mergeCell ref="A32:A33"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A16:A17"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1213,7 +1221,7 @@
   <dimension ref="A1:G29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:C3"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1228,303 +1236,305 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="36" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="28"/>
+      <c r="C2" s="29"/>
+      <c r="E2" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="28"/>
+      <c r="G2" s="29"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="31"/>
+      <c r="C3" s="31"/>
+      <c r="E3" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="30">
+        <v>43282</v>
+      </c>
+      <c r="G3" s="31"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="31"/>
+      <c r="C4" s="31"/>
+      <c r="E4" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="G4" s="31"/>
+    </row>
+    <row r="5" spans="1:7" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="32"/>
+      <c r="C5" s="32"/>
+      <c r="E5" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="G5" s="32"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="31"/>
+      <c r="C6" s="31"/>
+      <c r="E6" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" s="31" t="s">
+        <v>31</v>
+      </c>
+      <c r="G6" s="31"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="34"/>
+      <c r="C7" s="35"/>
+      <c r="E7" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" s="34"/>
+      <c r="G7" s="35"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="5" t="s">
         <v>64</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2" s="19"/>
-      <c r="C2" s="20"/>
-      <c r="E2" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="F2" s="19"/>
-      <c r="G2" s="20"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" s="9"/>
-      <c r="C3" s="9"/>
-      <c r="E3" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3" s="16">
-        <v>43282</v>
-      </c>
-      <c r="G3" s="9"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4" s="9"/>
-      <c r="C4" s="9"/>
-      <c r="E4" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="F4" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="G4" s="9"/>
-    </row>
-    <row r="5" spans="1:7" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="26" t="s">
-        <v>17</v>
-      </c>
-      <c r="B5" s="17"/>
-      <c r="C5" s="17"/>
-      <c r="E5" s="26" t="s">
-        <v>17</v>
-      </c>
-      <c r="F5" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="G5" s="17"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="27" t="s">
-        <v>18</v>
-      </c>
-      <c r="B6" s="9"/>
-      <c r="C6" s="9"/>
-      <c r="E6" s="27" t="s">
-        <v>18</v>
-      </c>
-      <c r="F6" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="G6" s="9"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="B7" s="23"/>
-      <c r="C7" s="24"/>
-      <c r="E7" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="F7" s="23"/>
-      <c r="G7" s="24"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="B8" s="26" t="s">
-        <v>21</v>
-      </c>
-      <c r="C8" s="26" t="s">
-        <v>22</v>
-      </c>
-      <c r="E8" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="F8" s="26" t="s">
-        <v>21</v>
-      </c>
-      <c r="G8" s="26" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="6" t="s">
-        <v>23</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
-      <c r="E9" s="6" t="s">
-        <v>34</v>
+      <c r="E9" s="5" t="s">
+        <v>32</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="G9" s="31" t="s">
-        <v>38</v>
+        <v>33</v>
+      </c>
+      <c r="G9" s="21" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="8"/>
+      <c r="A10" s="7" t="s">
+        <v>65</v>
+      </c>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
-      <c r="E10" s="8"/>
+      <c r="E10" s="7"/>
       <c r="F10" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="G10" s="32"/>
+        <v>34</v>
+      </c>
+      <c r="G10" s="22"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="7"/>
+      <c r="A11" s="6"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
-      <c r="E11" s="7"/>
+      <c r="E11" s="6"/>
       <c r="F11" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="G11" s="33"/>
+        <v>35</v>
+      </c>
+      <c r="G11" s="23"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="6" t="s">
-        <v>24</v>
+      <c r="A12" s="5" t="s">
+        <v>66</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
-      <c r="E12" s="6" t="s">
+      <c r="E12" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F12" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="F12" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="G12" s="31" t="s">
-        <v>38</v>
+      <c r="G12" s="21" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="8"/>
+      <c r="A13" s="7"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
-      <c r="E13" s="8" t="s">
+      <c r="E13" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="F13" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="F13" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="G13" s="32"/>
+      <c r="G13" s="22"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="7"/>
+      <c r="A14" s="6"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
-      <c r="E14" s="7"/>
+      <c r="E14" s="6"/>
       <c r="F14" s="4"/>
-      <c r="G14" s="33"/>
+      <c r="G14" s="23"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="B15" s="6"/>
+      <c r="A15" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" s="5"/>
       <c r="C15" s="2"/>
-      <c r="E15" s="6" t="s">
+      <c r="E15" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="F15" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="F15" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="G15" s="31" t="s">
-        <v>38</v>
+      <c r="G15" s="21" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="8"/>
-      <c r="B16" s="8"/>
+      <c r="A16" s="7"/>
+      <c r="B16" s="7"/>
       <c r="C16" s="3"/>
-      <c r="E16" s="8" t="s">
+      <c r="E16" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="F16" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="G16" s="32"/>
+      <c r="G16" s="22"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="7"/>
-      <c r="B17" s="7"/>
+      <c r="A17" s="6"/>
+      <c r="B17" s="6"/>
       <c r="C17" s="4"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="33"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="23"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" s="6" t="s">
-        <v>26</v>
+      <c r="A18" s="5" t="s">
+        <v>24</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
-      <c r="E18" s="6" t="s">
+      <c r="E18" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="F18" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="F18" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="G18" s="31" t="s">
-        <v>39</v>
+      <c r="G18" s="21" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" s="8"/>
+      <c r="A19" s="7"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
-      <c r="E19" s="8" t="s">
+      <c r="E19" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="F19" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="F19" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="G19" s="32"/>
+      <c r="G19" s="22"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" s="7"/>
+      <c r="A20" s="6"/>
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
-      <c r="E20" s="7"/>
+      <c r="E20" s="6"/>
       <c r="F20" s="4"/>
-      <c r="G20" s="33"/>
+      <c r="G20" s="23"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21" s="6" t="s">
-        <v>27</v>
+      <c r="A21" s="5" t="s">
+        <v>25</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
-      <c r="E21" s="6" t="s">
+      <c r="E21" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="F21" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="F21" s="2" t="s">
+      <c r="G21" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="G21" s="34" t="s">
-        <v>56</v>
-      </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22" s="8"/>
+      <c r="A22" s="7"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
-      <c r="E22" s="8" t="s">
+      <c r="E22" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="F22" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="F22" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="G22" s="35"/>
+      <c r="G22" s="25"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23" s="7"/>
+      <c r="A23" s="6"/>
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
-      <c r="E23" s="7"/>
+      <c r="E23" s="6"/>
       <c r="F23" s="4"/>
-      <c r="G23" s="36"/>
+      <c r="G23" s="26"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A24" s="6" t="s">
-        <v>28</v>
+      <c r="A24" s="5" t="s">
+        <v>26</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
-      <c r="E24" s="6" t="s">
+      <c r="E24" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="F24" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="F24" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="G24" s="31" t="s">
-        <v>38</v>
+      <c r="G24" s="21" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
@@ -1532,12 +1542,12 @@
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
       <c r="E25" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="F25" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="F25" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="G25" s="32"/>
+      <c r="G25" s="22"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="4"/>
@@ -1545,60 +1555,50 @@
       <c r="C26" s="4"/>
       <c r="E26" s="4"/>
       <c r="F26" s="4"/>
-      <c r="G26" s="33"/>
+      <c r="G26" s="23"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A27" s="28" t="s">
-        <v>29</v>
-      </c>
-      <c r="B27" s="10" t="s">
+      <c r="A27" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="B27" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="C27" s="16"/>
+      <c r="E27" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="F27" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="G27" s="16"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A28" s="13"/>
+      <c r="B28" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="C28" s="18"/>
+      <c r="E28" s="13"/>
+      <c r="F28" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="G28" s="18"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A29" s="14"/>
+      <c r="B29" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="C27" s="11"/>
-      <c r="E27" s="28" t="s">
-        <v>29</v>
-      </c>
-      <c r="F27" s="10" t="s">
+      <c r="C29" s="20"/>
+      <c r="E29" s="14"/>
+      <c r="F29" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="G27" s="11"/>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A28" s="29"/>
-      <c r="B28" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="C28" s="15"/>
-      <c r="E28" s="29"/>
-      <c r="F28" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="G28" s="15"/>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A29" s="30"/>
-      <c r="B29" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="C29" s="13"/>
-      <c r="E29" s="30"/>
-      <c r="F29" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="G29" s="13"/>
+      <c r="G29" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="E27:E29"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="G9:G11"/>
-    <mergeCell ref="G12:G14"/>
-    <mergeCell ref="G15:G17"/>
-    <mergeCell ref="G18:G20"/>
-    <mergeCell ref="G21:G23"/>
-    <mergeCell ref="G24:G26"/>
     <mergeCell ref="A27:A29"/>
     <mergeCell ref="B27:C27"/>
     <mergeCell ref="B28:C28"/>
@@ -1615,12 +1615,22 @@
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="A7:C7"/>
+    <mergeCell ref="E27:E29"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="G9:G11"/>
+    <mergeCell ref="G12:G14"/>
+    <mergeCell ref="G15:G17"/>
+    <mergeCell ref="G18:G20"/>
+    <mergeCell ref="G21:G23"/>
+    <mergeCell ref="G24:G26"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="A9 A12 A15 A18 A21 A24 B27:B29" numberStoredAsText="1"/>
+    <ignoredError sqref="A15 A18 A21 A24 B27:B29" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/ToDoList.xlsx
+++ b/ToDoList.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\02_GitRepoTortoise\01_Doc\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\works\04_Git\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32100D30-6F84-41C4-A7AC-452F15070BC1}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ToDo" sheetId="1" r:id="rId1"/>
@@ -279,10 +280,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>버전 아이디</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1. Cake</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -292,13 +289,17 @@
   </si>
   <si>
     <t>2. JoJoTalk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>버전 되돌리기 - at work</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -896,11 +897,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:G35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -945,7 +946,7 @@
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="11"/>
       <c r="B5" s="4" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>8</v>
@@ -1217,10 +1218,10 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
@@ -1341,7 +1342,7 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -1357,7 +1358,7 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -1379,7 +1380,7 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>

--- a/ToDoList.xlsx
+++ b/ToDoList.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\works\04_Git\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32100D30-6F84-41C4-A7AC-452F15070BC1}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85BAE685-A3B7-4A5D-A1EE-EF46341D1615}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="69">
   <si>
     <t>인프런 버전관리 시스템 Git</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -48,10 +48,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>GIT2-TortoiseGit</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>C언어 코딩도장</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -292,7 +288,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>버전 되돌리기 - at work</t>
+    <t>GIT2-TortoiseGit - at home</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>버전 생성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GIT3-TortoiseGit 백업 - at work</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>복제</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -901,7 +909,7 @@
   <dimension ref="A2:G35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -914,13 +922,13 @@
         <v>0</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
@@ -931,13 +939,13 @@
         <v>1</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>5</v>
+        <v>67</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
@@ -946,13 +954,13 @@
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="11"/>
       <c r="B5" s="4" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
@@ -962,7 +970,9 @@
       <c r="A6" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="2"/>
+      <c r="B6" s="2" t="s">
+        <v>65</v>
+      </c>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -971,7 +981,9 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="11"/>
-      <c r="B7" s="4"/>
+      <c r="B7" s="4" t="s">
+        <v>66</v>
+      </c>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
@@ -1237,29 +1249,29 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="36" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B2" s="28"/>
       <c r="C2" s="29"/>
       <c r="E2" s="27" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F2" s="28"/>
       <c r="G2" s="29"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B3" s="31"/>
       <c r="C3" s="31"/>
       <c r="E3" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F3" s="30">
         <v>43282</v>
@@ -1268,103 +1280,103 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B4" s="31"/>
       <c r="C4" s="31"/>
       <c r="E4" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F4" s="31" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G4" s="31"/>
     </row>
     <row r="5" spans="1:7" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B5" s="32"/>
       <c r="C5" s="32"/>
       <c r="E5" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F5" s="32" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G5" s="32"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B6" s="31"/>
       <c r="C6" s="31"/>
       <c r="E6" s="10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F6" s="31" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G6" s="31"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="33" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B7" s="34"/>
       <c r="C7" s="35"/>
       <c r="E7" s="33" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F7" s="34"/>
       <c r="G7" s="35"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="C8" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="9" t="s">
-        <v>21</v>
-      </c>
       <c r="E8" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F8" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="F8" s="9" t="s">
+      <c r="G8" s="9" t="s">
         <v>20</v>
-      </c>
-      <c r="G8" s="9" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="E9" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F9" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="F9" s="2" t="s">
-        <v>33</v>
-      </c>
       <c r="G9" s="21" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
       <c r="E10" s="7"/>
       <c r="F10" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G10" s="22"/>
     </row>
@@ -1374,24 +1386,24 @@
       <c r="C11" s="4"/>
       <c r="E11" s="6"/>
       <c r="F11" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G11" s="23"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="E12" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G12" s="21" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
@@ -1399,10 +1411,10 @@
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
       <c r="E13" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G13" s="22"/>
     </row>
@@ -1416,18 +1428,18 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B15" s="5"/>
       <c r="C15" s="2"/>
       <c r="E15" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G15" s="21" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
@@ -1435,10 +1447,10 @@
       <c r="B16" s="7"/>
       <c r="C16" s="3"/>
       <c r="E16" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G16" s="22"/>
     </row>
@@ -1452,18 +1464,18 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="E18" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G18" s="21" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
@@ -1471,10 +1483,10 @@
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
       <c r="E19" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G19" s="22"/>
     </row>
@@ -1488,18 +1500,18 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="E21" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G21" s="24" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
@@ -1507,10 +1519,10 @@
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
       <c r="E22" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G22" s="25"/>
     </row>
@@ -1524,18 +1536,18 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="E24" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G24" s="21" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
@@ -1543,10 +1555,10 @@
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
       <c r="E25" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G25" s="22"/>
     </row>
@@ -1560,41 +1572,41 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B27" s="15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C27" s="16"/>
       <c r="E27" s="12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F27" s="15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G27" s="16"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="13"/>
       <c r="B28" s="17" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C28" s="18"/>
       <c r="E28" s="13"/>
       <c r="F28" s="17" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G28" s="18"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="14"/>
       <c r="B29" s="19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C29" s="20"/>
       <c r="E29" s="14"/>
       <c r="F29" s="19" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G29" s="20"/>
     </row>

--- a/ToDoList.xlsx
+++ b/ToDoList.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\works\04_Git\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\02_GitRepoTortoise\01_Doc\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85BAE685-A3B7-4A5D-A1EE-EF46341D1615}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="ToDo" sheetId="1" r:id="rId1"/>
     <sheet name="MAP" sheetId="2" r:id="rId2"/>
+    <sheet name="Ref" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,11 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="69">
-  <si>
-    <t>인프런 버전관리 시스템 Git</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="100">
   <si>
     <t>Task1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -288,26 +284,154 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>GIT2-TortoiseGit - at home</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>버전 생성</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GIT3-TortoiseGit 백업 - at work</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>복제</t>
+    <t>H 소개</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수업소개</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ALD API - Emulator</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Eth, Serial, etc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Virtual Box 환경설정 ST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>.so library ST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>G</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>H</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인프런 - 지옥에서 온 Git</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Git 설치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>codeOnWeb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>온라인에서 코딩 학습 가능한 사이트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>J</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>K</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>L</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>O</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Q</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>U</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>W</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>X</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Z</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -905,11 +1029,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:G35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -918,17 +1042,15 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B2" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="B2" s="1"/>
       <c r="C2" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
@@ -936,43 +1058,41 @@
     <row r="3" spans="1:7" ht="5.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>67</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="B4" s="2"/>
       <c r="C4" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="2"/>
+        <v>8</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>64</v>
+      </c>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="11"/>
-      <c r="B5" s="4" t="s">
-        <v>68</v>
-      </c>
+      <c r="B5" s="4"/>
       <c r="C5" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="3"/>
+        <v>9</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>65</v>
+      </c>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>65</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -981,9 +1101,7 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="11"/>
-      <c r="B7" s="4" t="s">
-        <v>66</v>
-      </c>
+      <c r="B7" s="4"/>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
@@ -992,7 +1110,7 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="11" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -1012,7 +1130,7 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="11" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -1031,7 +1149,9 @@
       <c r="G11" s="4"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B14" s="1"/>
+      <c r="B14" s="1" t="s">
+        <v>66</v>
+      </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
@@ -1041,9 +1161,11 @@
     <row r="15" spans="1:7" ht="5.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="B16" s="2"/>
+        <v>0</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>68</v>
+      </c>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
@@ -1052,7 +1174,9 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="11"/>
-      <c r="B17" s="3"/>
+      <c r="B17" s="4" t="s">
+        <v>67</v>
+      </c>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
@@ -1061,29 +1185,31 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
+        <v>1</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="11"/>
       <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="B20" s="3"/>
+        <v>2</v>
+      </c>
+      <c r="B20" s="2"/>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
@@ -1092,7 +1218,7 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="11"/>
-      <c r="B21" s="3"/>
+      <c r="B21" s="4"/>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
@@ -1101,14 +1227,14 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="11" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="11"/>
@@ -1130,7 +1256,7 @@
     <row r="27" spans="1:7" ht="5.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="11" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
@@ -1150,27 +1276,27 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="B30" s="3"/>
-      <c r="C30" s="3"/>
-      <c r="D30" s="3"/>
-      <c r="E30" s="3"/>
-      <c r="F30" s="3"/>
-      <c r="G30" s="3"/>
+        <v>1</v>
+      </c>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="11"/>
-      <c r="B31" s="3"/>
-      <c r="C31" s="3"/>
-      <c r="D31" s="3"/>
-      <c r="E31" s="3"/>
-      <c r="F31" s="3"/>
-      <c r="G31" s="3"/>
+      <c r="B31" s="4"/>
+      <c r="C31" s="4"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="4"/>
+      <c r="G31" s="4"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" s="11" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
@@ -1190,14 +1316,14 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="B34" s="3"/>
-      <c r="C34" s="3"/>
-      <c r="D34" s="3"/>
-      <c r="E34" s="3"/>
-      <c r="F34" s="3"/>
-      <c r="G34" s="3"/>
+        <v>3</v>
+      </c>
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="2"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" s="11"/>
@@ -1230,7 +1356,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1249,29 +1375,29 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="36" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B2" s="28"/>
       <c r="C2" s="29"/>
       <c r="E2" s="27" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F2" s="28"/>
       <c r="G2" s="29"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B3" s="31"/>
       <c r="C3" s="31"/>
       <c r="E3" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F3" s="30">
         <v>43282</v>
@@ -1280,103 +1406,103 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B4" s="31"/>
       <c r="C4" s="31"/>
       <c r="E4" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F4" s="31" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G4" s="31"/>
     </row>
     <row r="5" spans="1:7" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B5" s="32"/>
       <c r="C5" s="32"/>
       <c r="E5" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F5" s="32" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G5" s="32"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B6" s="31"/>
       <c r="C6" s="31"/>
       <c r="E6" s="10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F6" s="31" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G6" s="31"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="33" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B7" s="34"/>
       <c r="C7" s="35"/>
       <c r="E7" s="33" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F7" s="34"/>
       <c r="G7" s="35"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="C8" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="9" t="s">
-        <v>20</v>
-      </c>
       <c r="E8" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="F8" s="9" t="s">
+      <c r="G8" s="9" t="s">
         <v>19</v>
-      </c>
-      <c r="G8" s="9" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="E9" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="F9" s="2" t="s">
-        <v>32</v>
-      </c>
       <c r="G9" s="21" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
       <c r="E10" s="7"/>
       <c r="F10" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G10" s="22"/>
     </row>
@@ -1386,24 +1512,24 @@
       <c r="C11" s="4"/>
       <c r="E11" s="6"/>
       <c r="F11" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G11" s="23"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="E12" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G12" s="21" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
@@ -1411,10 +1537,10 @@
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
       <c r="E13" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G13" s="22"/>
     </row>
@@ -1428,18 +1554,18 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B15" s="5"/>
       <c r="C15" s="2"/>
       <c r="E15" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G15" s="21" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
@@ -1447,10 +1573,10 @@
       <c r="B16" s="7"/>
       <c r="C16" s="3"/>
       <c r="E16" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G16" s="22"/>
     </row>
@@ -1464,18 +1590,18 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="E18" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G18" s="21" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
@@ -1483,10 +1609,10 @@
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
       <c r="E19" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G19" s="22"/>
     </row>
@@ -1500,18 +1626,18 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="E21" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G21" s="24" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
@@ -1519,10 +1645,10 @@
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
       <c r="E22" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G22" s="25"/>
     </row>
@@ -1536,18 +1662,18 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="E24" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G24" s="21" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
@@ -1555,10 +1681,10 @@
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
       <c r="E25" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G25" s="22"/>
     </row>
@@ -1572,41 +1698,41 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B27" s="15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C27" s="16"/>
       <c r="E27" s="12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F27" s="15" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G27" s="16"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="13"/>
       <c r="B28" s="17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C28" s="18"/>
       <c r="E28" s="13"/>
       <c r="F28" s="17" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G28" s="18"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="14"/>
       <c r="B29" s="19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C29" s="20"/>
       <c r="E29" s="14"/>
       <c r="F29" s="19" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G29" s="20"/>
     </row>
@@ -1646,4 +1772,196 @@
     <ignoredError sqref="A15 A18 A21 A24 B27:B29" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:D54"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B55" sqref="B55"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="26.875" customWidth="1"/>
+    <col min="4" max="4" width="41.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B2" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B3" s="4"/>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B4" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B5" s="4"/>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B6" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C6" t="s">
+        <v>80</v>
+      </c>
+      <c r="D6" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B7" s="3"/>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B8" s="4"/>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B9" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B10" s="4"/>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B11" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B12" s="4"/>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B13" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B14" s="4"/>
+    </row>
+    <row r="15" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B15" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C15" t="s">
+        <v>79</v>
+      </c>
+      <c r="D15" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B16" s="3"/>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B17" s="4"/>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B18" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B19" s="4"/>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B20" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B22" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B24" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B26" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="28" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B28" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="30" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B30" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="32" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B32" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B34" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="36" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B36" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="38" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B38" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="40" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B40" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="42" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B42" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="44" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B44" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="46" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B46" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="48" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B48" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="50" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B50" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="52" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B52" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="54" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B54" t="s">
+        <v>99</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/ToDoList.xlsx
+++ b/ToDoList.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="ToDo" sheetId="1" r:id="rId1"/>
@@ -52,10 +52,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>5.2 변수 여러 개를 한 번에 선언하기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>YouTube-생활코딩</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -284,14 +280,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>H 소개</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>수업소개</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ALD API - Emulator</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -425,6 +413,18 @@
   </si>
   <si>
     <t>Z</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>변경사항 확인하기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>H 버전관리의 본질</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.4 퀴즈</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1032,8 +1032,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:G35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1047,10 +1047,10 @@
         <v>4</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
@@ -1065,10 +1065,10 @@
         <v>5</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>64</v>
+        <v>98</v>
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
@@ -1077,13 +1077,13 @@
       <c r="A5" s="11"/>
       <c r="B5" s="4"/>
       <c r="C5" s="3" t="s">
-        <v>6</v>
+        <v>99</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>65</v>
+        <v>97</v>
       </c>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
@@ -1150,7 +1150,7 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B14" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
@@ -1164,7 +1164,7 @@
         <v>0</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
@@ -1175,7 +1175,7 @@
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="11"/>
       <c r="B17" s="4" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
@@ -1188,7 +1188,7 @@
         <v>1</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
@@ -1375,29 +1375,29 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="36" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B2" s="28"/>
       <c r="C2" s="29"/>
       <c r="E2" s="27" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F2" s="28"/>
       <c r="G2" s="29"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B3" s="31"/>
       <c r="C3" s="31"/>
       <c r="E3" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F3" s="30">
         <v>43282</v>
@@ -1406,103 +1406,103 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B4" s="31"/>
       <c r="C4" s="31"/>
       <c r="E4" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F4" s="31" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G4" s="31"/>
     </row>
     <row r="5" spans="1:7" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B5" s="32"/>
       <c r="C5" s="32"/>
       <c r="E5" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F5" s="32" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G5" s="32"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B6" s="31"/>
       <c r="C6" s="31"/>
       <c r="E6" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F6" s="31" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G6" s="31"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="33" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B7" s="34"/>
       <c r="C7" s="35"/>
       <c r="E7" s="33" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F7" s="34"/>
       <c r="G7" s="35"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="C8" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="9" t="s">
-        <v>19</v>
-      </c>
       <c r="E8" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="F8" s="9" t="s">
+      <c r="G8" s="9" t="s">
         <v>18</v>
-      </c>
-      <c r="G8" s="9" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="E9" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F9" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="F9" s="2" t="s">
-        <v>31</v>
-      </c>
       <c r="G9" s="21" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
       <c r="E10" s="7"/>
       <c r="F10" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G10" s="22"/>
     </row>
@@ -1512,24 +1512,24 @@
       <c r="C11" s="4"/>
       <c r="E11" s="6"/>
       <c r="F11" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G11" s="23"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="E12" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G12" s="21" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
@@ -1537,10 +1537,10 @@
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
       <c r="E13" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G13" s="22"/>
     </row>
@@ -1554,18 +1554,18 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B15" s="5"/>
       <c r="C15" s="2"/>
       <c r="E15" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G15" s="21" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
@@ -1573,10 +1573,10 @@
       <c r="B16" s="7"/>
       <c r="C16" s="3"/>
       <c r="E16" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G16" s="22"/>
     </row>
@@ -1590,18 +1590,18 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="E18" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G18" s="21" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
@@ -1609,10 +1609,10 @@
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
       <c r="E19" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G19" s="22"/>
     </row>
@@ -1626,18 +1626,18 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="E21" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G21" s="24" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
@@ -1645,10 +1645,10 @@
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
       <c r="E22" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G22" s="25"/>
     </row>
@@ -1662,18 +1662,18 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="E24" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G24" s="21" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
@@ -1681,10 +1681,10 @@
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
       <c r="E25" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G25" s="22"/>
     </row>
@@ -1698,41 +1698,41 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B27" s="15" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C27" s="16"/>
       <c r="E27" s="12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F27" s="15" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G27" s="16"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="13"/>
       <c r="B28" s="17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C28" s="18"/>
       <c r="E28" s="13"/>
       <c r="F28" s="17" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G28" s="18"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="14"/>
       <c r="B29" s="19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C29" s="20"/>
       <c r="E29" s="14"/>
       <c r="F29" s="19" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G29" s="20"/>
     </row>
@@ -1778,8 +1778,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:D54"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B55" sqref="B55"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1790,7 +1790,7 @@
   <sheetData>
     <row r="2" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.3">
@@ -1798,7 +1798,7 @@
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B4" s="2" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.3">
@@ -1806,13 +1806,13 @@
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B6" s="2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C6" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D6" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.3">
@@ -1823,7 +1823,7 @@
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B9" s="2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.3">
@@ -1831,7 +1831,7 @@
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B11" s="2" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.3">
@@ -1839,7 +1839,7 @@
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B13" s="2" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.3">
@@ -1847,13 +1847,13 @@
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B15" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C15" t="s">
         <v>76</v>
       </c>
-      <c r="C15" t="s">
-        <v>79</v>
-      </c>
       <c r="D15" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="16" spans="2:4" x14ac:dyDescent="0.3">
@@ -1864,7 +1864,7 @@
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B18" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="19" spans="2:2" x14ac:dyDescent="0.3">
@@ -1872,92 +1872,92 @@
     </row>
     <row r="20" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="22" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="24" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B24" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="26" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="28" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B28" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="30" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B30" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="32" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B32" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="34" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B34" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="36" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B36" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="38" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B38" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="40" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B40" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="42" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B42" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="44" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B44" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="46" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B46" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="48" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B48" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="50" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B50" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="52" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B52" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="54" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B54" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>

--- a/ToDoList.xlsx
+++ b/ToDoList.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="105">
   <si>
     <t>Task1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -288,10 +288,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Virtual Box 환경설정 ST</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>.so library ST</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -425,6 +421,30 @@
   </si>
   <si>
     <t>5.4 퀴즈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Virtual Box 설치,환경설정 ST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Virtual Box Ubuntu 설치, 환경설정ST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SS BBUe</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Init 구조 ST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GOM FPGA, Device Driver</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Installation UI</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -702,6 +722,36 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -719,36 +769,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1033,7 +1053,7 @@
   <dimension ref="A2:G35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1068,7 +1088,7 @@
         <v>7</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
@@ -1077,13 +1097,13 @@
       <c r="A5" s="11"/>
       <c r="B5" s="4"/>
       <c r="C5" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>8</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
@@ -1152,7 +1172,9 @@
       <c r="B14" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="C14" s="1"/>
+      <c r="C14" s="1" t="s">
+        <v>101</v>
+      </c>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
@@ -1164,9 +1186,11 @@
         <v>0</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="C16" s="2"/>
+        <v>99</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>102</v>
+      </c>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
@@ -1177,7 +1201,9 @@
       <c r="B17" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="C17" s="3"/>
+      <c r="C17" s="3" t="s">
+        <v>103</v>
+      </c>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
@@ -1188,9 +1214,11 @@
         <v>1</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="C18" s="2"/>
+        <v>100</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>104</v>
+      </c>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
@@ -1209,7 +1237,9 @@
       <c r="A20" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B20" s="2"/>
+      <c r="B20" s="2" t="s">
+        <v>65</v>
+      </c>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
@@ -1336,6 +1366,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A16:A17"/>
     <mergeCell ref="A34:A35"/>
     <mergeCell ref="A18:A19"/>
     <mergeCell ref="A20:A21"/>
@@ -1343,11 +1378,6 @@
     <mergeCell ref="A28:A29"/>
     <mergeCell ref="A30:A31"/>
     <mergeCell ref="A32:A33"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A16:A17"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1379,84 +1409,84 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="36" t="s">
+      <c r="A2" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="28"/>
-      <c r="C2" s="29"/>
-      <c r="E2" s="27" t="s">
+      <c r="B2" s="22"/>
+      <c r="C2" s="23"/>
+      <c r="E2" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="28"/>
-      <c r="G2" s="29"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="23"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="31"/>
-      <c r="C3" s="31"/>
+      <c r="B3" s="25"/>
+      <c r="C3" s="25"/>
       <c r="E3" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="30">
+      <c r="F3" s="24">
         <v>43282</v>
       </c>
-      <c r="G3" s="31"/>
+      <c r="G3" s="25"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="31"/>
-      <c r="C4" s="31"/>
+      <c r="B4" s="25"/>
+      <c r="C4" s="25"/>
       <c r="E4" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="31" t="s">
+      <c r="F4" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="G4" s="31"/>
+      <c r="G4" s="25"/>
     </row>
     <row r="5" spans="1:7" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="32"/>
-      <c r="C5" s="32"/>
+      <c r="B5" s="26"/>
+      <c r="C5" s="26"/>
       <c r="E5" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="32" t="s">
+      <c r="F5" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="G5" s="32"/>
+      <c r="G5" s="26"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="31"/>
-      <c r="C6" s="31"/>
+      <c r="B6" s="25"/>
+      <c r="C6" s="25"/>
       <c r="E6" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="F6" s="31" t="s">
+      <c r="F6" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="G6" s="31"/>
+      <c r="G6" s="25"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="33" t="s">
+      <c r="A7" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="34"/>
-      <c r="C7" s="35"/>
-      <c r="E7" s="33" t="s">
+      <c r="B7" s="28"/>
+      <c r="C7" s="29"/>
+      <c r="E7" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="F7" s="34"/>
-      <c r="G7" s="35"/>
+      <c r="F7" s="28"/>
+      <c r="G7" s="29"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="8" t="s">
@@ -1490,7 +1520,7 @@
       <c r="F9" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="G9" s="21" t="s">
+      <c r="G9" s="31" t="s">
         <v>33</v>
       </c>
     </row>
@@ -1504,7 +1534,7 @@
       <c r="F10" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="G10" s="22"/>
+      <c r="G10" s="32"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="6"/>
@@ -1514,7 +1544,7 @@
       <c r="F11" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="G11" s="23"/>
+      <c r="G11" s="33"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
@@ -1528,7 +1558,7 @@
       <c r="F12" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="G12" s="21" t="s">
+      <c r="G12" s="31" t="s">
         <v>33</v>
       </c>
     </row>
@@ -1542,7 +1572,7 @@
       <c r="F13" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="G13" s="22"/>
+      <c r="G13" s="32"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="6"/>
@@ -1550,7 +1580,7 @@
       <c r="C14" s="4"/>
       <c r="E14" s="6"/>
       <c r="F14" s="4"/>
-      <c r="G14" s="23"/>
+      <c r="G14" s="33"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
@@ -1564,7 +1594,7 @@
       <c r="F15" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="G15" s="21" t="s">
+      <c r="G15" s="31" t="s">
         <v>33</v>
       </c>
     </row>
@@ -1578,7 +1608,7 @@
       <c r="F16" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="G16" s="22"/>
+      <c r="G16" s="32"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="6"/>
@@ -1586,7 +1616,7 @@
       <c r="C17" s="4"/>
       <c r="E17" s="6"/>
       <c r="F17" s="6"/>
-      <c r="G17" s="23"/>
+      <c r="G17" s="33"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
@@ -1600,7 +1630,7 @@
       <c r="F18" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="G18" s="21" t="s">
+      <c r="G18" s="31" t="s">
         <v>34</v>
       </c>
     </row>
@@ -1614,7 +1644,7 @@
       <c r="F19" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="G19" s="22"/>
+      <c r="G19" s="32"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="6"/>
@@ -1622,7 +1652,7 @@
       <c r="C20" s="4"/>
       <c r="E20" s="6"/>
       <c r="F20" s="4"/>
-      <c r="G20" s="23"/>
+      <c r="G20" s="33"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
@@ -1636,7 +1666,7 @@
       <c r="F21" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="G21" s="24" t="s">
+      <c r="G21" s="34" t="s">
         <v>51</v>
       </c>
     </row>
@@ -1650,7 +1680,7 @@
       <c r="F22" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="G22" s="25"/>
+      <c r="G22" s="35"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="6"/>
@@ -1658,7 +1688,7 @@
       <c r="C23" s="4"/>
       <c r="E23" s="6"/>
       <c r="F23" s="4"/>
-      <c r="G23" s="26"/>
+      <c r="G23" s="36"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="5" t="s">
@@ -1672,7 +1702,7 @@
       <c r="F24" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="G24" s="21" t="s">
+      <c r="G24" s="31" t="s">
         <v>33</v>
       </c>
     </row>
@@ -1686,7 +1716,7 @@
       <c r="F25" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="G25" s="22"/>
+      <c r="G25" s="32"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="4"/>
@@ -1694,7 +1724,7 @@
       <c r="C26" s="4"/>
       <c r="E26" s="4"/>
       <c r="F26" s="4"/>
-      <c r="G26" s="23"/>
+      <c r="G26" s="33"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="12" t="s">
@@ -1738,6 +1768,16 @@
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="E27:E29"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="G9:G11"/>
+    <mergeCell ref="G12:G14"/>
+    <mergeCell ref="G15:G17"/>
+    <mergeCell ref="G18:G20"/>
+    <mergeCell ref="G21:G23"/>
+    <mergeCell ref="G24:G26"/>
     <mergeCell ref="A27:A29"/>
     <mergeCell ref="B27:C27"/>
     <mergeCell ref="B28:C28"/>
@@ -1754,16 +1794,6 @@
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="A7:C7"/>
-    <mergeCell ref="E27:E29"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="G9:G11"/>
-    <mergeCell ref="G12:G14"/>
-    <mergeCell ref="G15:G17"/>
-    <mergeCell ref="G18:G20"/>
-    <mergeCell ref="G21:G23"/>
-    <mergeCell ref="G24:G26"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1790,7 +1820,7 @@
   <sheetData>
     <row r="2" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.3">
@@ -1798,7 +1828,7 @@
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B4" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.3">
@@ -1806,13 +1836,13 @@
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B6" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C6" t="s">
+        <v>76</v>
+      </c>
+      <c r="D6" t="s">
         <v>77</v>
-      </c>
-      <c r="D6" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.3">
@@ -1823,7 +1853,7 @@
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B9" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.3">
@@ -1831,7 +1861,7 @@
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B11" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.3">
@@ -1839,7 +1869,7 @@
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B13" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.3">
@@ -1847,13 +1877,13 @@
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B15" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C15" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D15" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="16" spans="2:4" x14ac:dyDescent="0.3">
@@ -1864,7 +1894,7 @@
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B18" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="19" spans="2:2" x14ac:dyDescent="0.3">
@@ -1872,92 +1902,92 @@
     </row>
     <row r="20" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="22" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="24" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B24" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="26" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="28" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B28" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="30" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B30" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="32" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B32" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="34" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B34" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="36" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B36" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="38" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B38" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="40" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B40" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="42" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B42" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="44" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B44" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="46" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B46" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="48" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B48" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="50" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B50" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="52" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B52" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="54" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B54" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>

--- a/ToDoList.xlsx
+++ b/ToDoList.xlsx
@@ -412,10 +412,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>변경사항 확인하기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>H 버전관리의 본질</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -445,6 +441,10 @@
   </si>
   <si>
     <t>Installation UI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>과거로 돌아가기(reset)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -722,6 +722,24 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -751,24 +769,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1053,7 +1053,7 @@
   <dimension ref="A2:G35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1088,7 +1088,7 @@
         <v>7</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
@@ -1097,13 +1097,13 @@
       <c r="A5" s="11"/>
       <c r="B5" s="4"/>
       <c r="C5" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>8</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
@@ -1173,7 +1173,7 @@
         <v>63</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
@@ -1186,10 +1186,10 @@
         <v>0</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
@@ -1202,7 +1202,7 @@
         <v>64</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
@@ -1214,10 +1214,10 @@
         <v>1</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
@@ -1366,11 +1366,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A16:A17"/>
     <mergeCell ref="A34:A35"/>
     <mergeCell ref="A18:A19"/>
     <mergeCell ref="A20:A21"/>
@@ -1378,6 +1373,11 @@
     <mergeCell ref="A28:A29"/>
     <mergeCell ref="A30:A31"/>
     <mergeCell ref="A32:A33"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A16:A17"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1409,84 +1409,84 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="22"/>
-      <c r="C2" s="23"/>
-      <c r="E2" s="21" t="s">
+      <c r="B2" s="28"/>
+      <c r="C2" s="29"/>
+      <c r="E2" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="22"/>
-      <c r="G2" s="23"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="29"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="25"/>
-      <c r="C3" s="25"/>
+      <c r="B3" s="31"/>
+      <c r="C3" s="31"/>
       <c r="E3" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="24">
+      <c r="F3" s="30">
         <v>43282</v>
       </c>
-      <c r="G3" s="25"/>
+      <c r="G3" s="31"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="25"/>
-      <c r="C4" s="25"/>
+      <c r="B4" s="31"/>
+      <c r="C4" s="31"/>
       <c r="E4" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="25" t="s">
+      <c r="F4" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="G4" s="25"/>
+      <c r="G4" s="31"/>
     </row>
     <row r="5" spans="1:7" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="26"/>
-      <c r="C5" s="26"/>
+      <c r="B5" s="32"/>
+      <c r="C5" s="32"/>
       <c r="E5" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="26" t="s">
+      <c r="F5" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="G5" s="26"/>
+      <c r="G5" s="32"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="25"/>
-      <c r="C6" s="25"/>
+      <c r="B6" s="31"/>
+      <c r="C6" s="31"/>
       <c r="E6" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="F6" s="25" t="s">
+      <c r="F6" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="G6" s="25"/>
+      <c r="G6" s="31"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="27" t="s">
+      <c r="A7" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="28"/>
-      <c r="C7" s="29"/>
-      <c r="E7" s="27" t="s">
+      <c r="B7" s="34"/>
+      <c r="C7" s="35"/>
+      <c r="E7" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="F7" s="28"/>
-      <c r="G7" s="29"/>
+      <c r="F7" s="34"/>
+      <c r="G7" s="35"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="8" t="s">
@@ -1520,7 +1520,7 @@
       <c r="F9" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="G9" s="31" t="s">
+      <c r="G9" s="21" t="s">
         <v>33</v>
       </c>
     </row>
@@ -1534,7 +1534,7 @@
       <c r="F10" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="G10" s="32"/>
+      <c r="G10" s="22"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="6"/>
@@ -1544,7 +1544,7 @@
       <c r="F11" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="G11" s="33"/>
+      <c r="G11" s="23"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
@@ -1558,7 +1558,7 @@
       <c r="F12" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="G12" s="31" t="s">
+      <c r="G12" s="21" t="s">
         <v>33</v>
       </c>
     </row>
@@ -1572,7 +1572,7 @@
       <c r="F13" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="G13" s="32"/>
+      <c r="G13" s="22"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="6"/>
@@ -1580,7 +1580,7 @@
       <c r="C14" s="4"/>
       <c r="E14" s="6"/>
       <c r="F14" s="4"/>
-      <c r="G14" s="33"/>
+      <c r="G14" s="23"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
@@ -1594,7 +1594,7 @@
       <c r="F15" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="G15" s="31" t="s">
+      <c r="G15" s="21" t="s">
         <v>33</v>
       </c>
     </row>
@@ -1608,7 +1608,7 @@
       <c r="F16" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="G16" s="32"/>
+      <c r="G16" s="22"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="6"/>
@@ -1616,7 +1616,7 @@
       <c r="C17" s="4"/>
       <c r="E17" s="6"/>
       <c r="F17" s="6"/>
-      <c r="G17" s="33"/>
+      <c r="G17" s="23"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
@@ -1630,7 +1630,7 @@
       <c r="F18" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="G18" s="31" t="s">
+      <c r="G18" s="21" t="s">
         <v>34</v>
       </c>
     </row>
@@ -1644,7 +1644,7 @@
       <c r="F19" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="G19" s="32"/>
+      <c r="G19" s="22"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="6"/>
@@ -1652,7 +1652,7 @@
       <c r="C20" s="4"/>
       <c r="E20" s="6"/>
       <c r="F20" s="4"/>
-      <c r="G20" s="33"/>
+      <c r="G20" s="23"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
@@ -1666,7 +1666,7 @@
       <c r="F21" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="G21" s="34" t="s">
+      <c r="G21" s="24" t="s">
         <v>51</v>
       </c>
     </row>
@@ -1680,7 +1680,7 @@
       <c r="F22" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="G22" s="35"/>
+      <c r="G22" s="25"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="6"/>
@@ -1688,7 +1688,7 @@
       <c r="C23" s="4"/>
       <c r="E23" s="6"/>
       <c r="F23" s="4"/>
-      <c r="G23" s="36"/>
+      <c r="G23" s="26"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="5" t="s">
@@ -1702,7 +1702,7 @@
       <c r="F24" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="G24" s="31" t="s">
+      <c r="G24" s="21" t="s">
         <v>33</v>
       </c>
     </row>
@@ -1716,7 +1716,7 @@
       <c r="F25" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="G25" s="32"/>
+      <c r="G25" s="22"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="4"/>
@@ -1724,7 +1724,7 @@
       <c r="C26" s="4"/>
       <c r="E26" s="4"/>
       <c r="F26" s="4"/>
-      <c r="G26" s="33"/>
+      <c r="G26" s="23"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="12" t="s">
@@ -1768,16 +1768,6 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="E27:E29"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="G9:G11"/>
-    <mergeCell ref="G12:G14"/>
-    <mergeCell ref="G15:G17"/>
-    <mergeCell ref="G18:G20"/>
-    <mergeCell ref="G21:G23"/>
-    <mergeCell ref="G24:G26"/>
     <mergeCell ref="A27:A29"/>
     <mergeCell ref="B27:C27"/>
     <mergeCell ref="B28:C28"/>
@@ -1794,6 +1784,16 @@
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="A7:C7"/>
+    <mergeCell ref="E27:E29"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="G9:G11"/>
+    <mergeCell ref="G12:G14"/>
+    <mergeCell ref="G15:G17"/>
+    <mergeCell ref="G18:G20"/>
+    <mergeCell ref="G21:G23"/>
+    <mergeCell ref="G24:G26"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ToDoList.xlsx
+++ b/ToDoList.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\02_GitRepoTortoise\01_Doc\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\works\04_Git\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{097C930E-97D7-4CA6-A71D-A1566F0F338C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ToDo" sheetId="1" r:id="rId1"/>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="110">
   <si>
     <t>Task1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -64,10 +65,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>인프런 지옥에서 온 Git</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Massive Action Plan</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -412,10 +409,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>H 버전관리의 본질</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>5.4 퀴즈</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -445,13 +438,41 @@
   </si>
   <si>
     <t>과거로 돌아가기(reset)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인프런 지옥에서 온 Git(H)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>버전관리의 본질</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인프런 Git GitHub(W)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>git 입문</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>소스트리 사용해보기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>branch environment</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>backup, clone, setup, commit, push</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -722,6 +743,36 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -739,36 +790,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1049,11 +1070,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:G35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1062,7 +1083,9 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B2" s="1"/>
+      <c r="B2" s="1" t="s">
+        <v>105</v>
+      </c>
       <c r="C2" s="1" t="s">
         <v>4</v>
       </c>
@@ -1070,7 +1093,7 @@
         <v>6</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>9</v>
+        <v>103</v>
       </c>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
@@ -1080,7 +1103,9 @@
       <c r="A4" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="2"/>
+      <c r="B4" s="2" t="s">
+        <v>106</v>
+      </c>
       <c r="C4" s="2" t="s">
         <v>5</v>
       </c>
@@ -1088,22 +1113,24 @@
         <v>7</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="11"/>
-      <c r="B5" s="4"/>
+      <c r="B5" s="4" t="s">
+        <v>107</v>
+      </c>
       <c r="C5" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>8</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
@@ -1170,10 +1197,10 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B14" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
@@ -1186,10 +1213,10 @@
         <v>0</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
@@ -1199,10 +1226,10 @@
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="11"/>
       <c r="B17" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
@@ -1214,10 +1241,10 @@
         <v>1</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
@@ -1238,9 +1265,11 @@
         <v>2</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="C20" s="3"/>
+        <v>64</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>108</v>
+      </c>
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
@@ -1249,7 +1278,9 @@
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="11"/>
       <c r="B21" s="4"/>
-      <c r="C21" s="3"/>
+      <c r="C21" s="3" t="s">
+        <v>109</v>
+      </c>
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
@@ -1366,6 +1397,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A16:A17"/>
     <mergeCell ref="A34:A35"/>
     <mergeCell ref="A18:A19"/>
     <mergeCell ref="A20:A21"/>
@@ -1373,11 +1409,6 @@
     <mergeCell ref="A28:A29"/>
     <mergeCell ref="A30:A31"/>
     <mergeCell ref="A32:A33"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A16:A17"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1386,7 +1417,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1405,136 +1436,136 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="36" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="28"/>
-      <c r="C2" s="29"/>
-      <c r="E2" s="27" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="28"/>
-      <c r="G2" s="29"/>
+      <c r="A2" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="22"/>
+      <c r="C2" s="23"/>
+      <c r="E2" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="22"/>
+      <c r="G2" s="23"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" s="31"/>
-      <c r="C3" s="31"/>
+        <v>10</v>
+      </c>
+      <c r="B3" s="25"/>
+      <c r="C3" s="25"/>
       <c r="E3" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" s="30">
+        <v>10</v>
+      </c>
+      <c r="F3" s="24">
         <v>43282</v>
       </c>
-      <c r="G3" s="31"/>
+      <c r="G3" s="25"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="31"/>
-      <c r="C4" s="31"/>
+        <v>11</v>
+      </c>
+      <c r="B4" s="25"/>
+      <c r="C4" s="25"/>
       <c r="E4" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" s="31" t="s">
-        <v>26</v>
-      </c>
-      <c r="G4" s="31"/>
+        <v>11</v>
+      </c>
+      <c r="F4" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="G4" s="25"/>
     </row>
     <row r="5" spans="1:7" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" s="32"/>
-      <c r="C5" s="32"/>
+        <v>12</v>
+      </c>
+      <c r="B5" s="26"/>
+      <c r="C5" s="26"/>
       <c r="E5" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="F5" s="32" t="s">
-        <v>27</v>
-      </c>
-      <c r="G5" s="32"/>
+        <v>12</v>
+      </c>
+      <c r="F5" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="G5" s="26"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="25"/>
+      <c r="C6" s="25"/>
+      <c r="E6" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="G6" s="25"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="31"/>
-      <c r="C6" s="31"/>
-      <c r="E6" s="10" t="s">
+      <c r="B7" s="28"/>
+      <c r="C7" s="29"/>
+      <c r="E7" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="F6" s="31" t="s">
-        <v>28</v>
-      </c>
-      <c r="G6" s="31"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="33" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" s="34"/>
-      <c r="C7" s="35"/>
-      <c r="E7" s="33" t="s">
-        <v>15</v>
-      </c>
-      <c r="F7" s="34"/>
-      <c r="G7" s="35"/>
+      <c r="F7" s="28"/>
+      <c r="G7" s="29"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="C8" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="9" t="s">
-        <v>18</v>
-      </c>
       <c r="E8" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="F8" s="9" t="s">
+      <c r="G8" s="9" t="s">
         <v>17</v>
-      </c>
-      <c r="G8" s="9" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="E9" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F9" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="F9" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="G9" s="21" t="s">
-        <v>33</v>
+      <c r="G9" s="31" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
       <c r="E10" s="7"/>
       <c r="F10" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="G10" s="22"/>
+        <v>30</v>
+      </c>
+      <c r="G10" s="32"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="6"/>
@@ -1542,24 +1573,24 @@
       <c r="C11" s="4"/>
       <c r="E11" s="6"/>
       <c r="F11" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="G11" s="23"/>
+        <v>31</v>
+      </c>
+      <c r="G11" s="33"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="E12" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="G12" s="21" t="s">
-        <v>33</v>
+        <v>36</v>
+      </c>
+      <c r="G12" s="31" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
@@ -1567,12 +1598,12 @@
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
       <c r="E13" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="G13" s="22"/>
+        <v>37</v>
+      </c>
+      <c r="G13" s="32"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="6"/>
@@ -1580,22 +1611,22 @@
       <c r="C14" s="4"/>
       <c r="E14" s="6"/>
       <c r="F14" s="4"/>
-      <c r="G14" s="23"/>
+      <c r="G14" s="33"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B15" s="5"/>
       <c r="C15" s="2"/>
       <c r="E15" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="G15" s="21" t="s">
-        <v>33</v>
+        <v>40</v>
+      </c>
+      <c r="G15" s="31" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
@@ -1603,12 +1634,12 @@
       <c r="B16" s="7"/>
       <c r="C16" s="3"/>
       <c r="E16" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="G16" s="22"/>
+        <v>41</v>
+      </c>
+      <c r="G16" s="32"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="6"/>
@@ -1616,22 +1647,22 @@
       <c r="C17" s="4"/>
       <c r="E17" s="6"/>
       <c r="F17" s="6"/>
-      <c r="G17" s="23"/>
+      <c r="G17" s="33"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="E18" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="G18" s="21" t="s">
-        <v>34</v>
+        <v>44</v>
+      </c>
+      <c r="G18" s="31" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
@@ -1639,12 +1670,12 @@
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
       <c r="E19" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="G19" s="22"/>
+        <v>45</v>
+      </c>
+      <c r="G19" s="32"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="6"/>
@@ -1652,22 +1683,22 @@
       <c r="C20" s="4"/>
       <c r="E20" s="6"/>
       <c r="F20" s="4"/>
-      <c r="G20" s="23"/>
+      <c r="G20" s="33"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="E21" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="G21" s="24" t="s">
-        <v>51</v>
+        <v>48</v>
+      </c>
+      <c r="G21" s="34" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
@@ -1675,12 +1706,12 @@
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
       <c r="E22" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="G22" s="25"/>
+        <v>49</v>
+      </c>
+      <c r="G22" s="35"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="6"/>
@@ -1688,22 +1719,22 @@
       <c r="C23" s="4"/>
       <c r="E23" s="6"/>
       <c r="F23" s="4"/>
-      <c r="G23" s="26"/>
+      <c r="G23" s="36"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="E24" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="G24" s="21" t="s">
-        <v>33</v>
+        <v>53</v>
+      </c>
+      <c r="G24" s="31" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
@@ -1711,12 +1742,12 @@
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
       <c r="E25" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="G25" s="22"/>
+        <v>54</v>
+      </c>
+      <c r="G25" s="32"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="4"/>
@@ -1724,50 +1755,60 @@
       <c r="C26" s="4"/>
       <c r="E26" s="4"/>
       <c r="F26" s="4"/>
-      <c r="G26" s="23"/>
+      <c r="G26" s="33"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B27" s="15" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C27" s="16"/>
       <c r="E27" s="12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F27" s="15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G27" s="16"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="13"/>
       <c r="B28" s="17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C28" s="18"/>
       <c r="E28" s="13"/>
       <c r="F28" s="17" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G28" s="18"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="14"/>
       <c r="B29" s="19" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C29" s="20"/>
       <c r="E29" s="14"/>
       <c r="F29" s="19" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G29" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="E27:E29"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="G9:G11"/>
+    <mergeCell ref="G12:G14"/>
+    <mergeCell ref="G15:G17"/>
+    <mergeCell ref="G18:G20"/>
+    <mergeCell ref="G21:G23"/>
+    <mergeCell ref="G24:G26"/>
     <mergeCell ref="A27:A29"/>
     <mergeCell ref="B27:C27"/>
     <mergeCell ref="B28:C28"/>
@@ -1784,16 +1825,6 @@
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="A7:C7"/>
-    <mergeCell ref="E27:E29"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="G9:G11"/>
-    <mergeCell ref="G12:G14"/>
-    <mergeCell ref="G15:G17"/>
-    <mergeCell ref="G18:G20"/>
-    <mergeCell ref="G21:G23"/>
-    <mergeCell ref="G24:G26"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1805,7 +1836,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B2:D54"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -1820,7 +1851,7 @@
   <sheetData>
     <row r="2" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.3">
@@ -1828,7 +1859,7 @@
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B4" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.3">
@@ -1836,13 +1867,13 @@
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B6" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C6" t="s">
+        <v>75</v>
+      </c>
+      <c r="D6" t="s">
         <v>76</v>
-      </c>
-      <c r="D6" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.3">
@@ -1853,7 +1884,7 @@
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B9" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.3">
@@ -1861,7 +1892,7 @@
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B11" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.3">
@@ -1869,7 +1900,7 @@
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B13" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.3">
@@ -1877,13 +1908,13 @@
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B15" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C15" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D15" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="16" spans="2:4" x14ac:dyDescent="0.3">
@@ -1894,7 +1925,7 @@
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B18" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="19" spans="2:2" x14ac:dyDescent="0.3">
@@ -1902,92 +1933,92 @@
     </row>
     <row r="20" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="22" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="24" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B24" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="26" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="28" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B28" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="30" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B30" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="32" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B32" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="34" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B34" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="36" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B36" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="38" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B38" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="40" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B40" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="42" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B42" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="44" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B44" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="46" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B46" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="48" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B48" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="50" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B50" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="52" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B52" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="54" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B54" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>

--- a/ToDoList.xlsx
+++ b/ToDoList.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\works\04_Git\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{097C930E-97D7-4CA6-A71D-A1566F0F338C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E34B718-F5BF-4ECC-A932-81367E64A553}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="113">
   <si>
     <t>Task1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -45,10 +45,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>C언어 코딩도장</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Unit5. 변수 만들기</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -281,10 +277,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Eth, Serial, etc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>.so library ST</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -413,22 +405,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Virtual Box 설치,환경설정 ST</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Virtual Box Ubuntu 설치, 환경설정ST</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>SS BBUe</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Init 구조 ST</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>GOM FPGA, Device Driver</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -457,15 +437,47 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>소스트리 사용해보기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>branch environment</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>backup, clone, setup, commit, push</t>
+    <t>Init(Samsung 진입시) 구조 ST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Auto Measure 추가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Development Plan</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RRH 전/후, Installation까지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>변경사항 취소하기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Virtual Box </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Virtual Box 환경설정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Eth, Qt5 Install</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Serial Port setup and test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>API(GT) include Qt5 test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C언어 코딩도장(H)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1074,7 +1086,7 @@
   <dimension ref="A2:G35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1084,16 +1096,16 @@
   <sheetData>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>4</v>
+        <v>112</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
@@ -1104,16 +1116,16 @@
         <v>0</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
@@ -1121,16 +1133,16 @@
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="11"/>
       <c r="B5" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
@@ -1197,10 +1209,10 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B14" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
@@ -1213,10 +1225,10 @@
         <v>0</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>96</v>
+        <v>108</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
@@ -1226,10 +1238,10 @@
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="11"/>
       <c r="B17" s="4" t="s">
-        <v>63</v>
+        <v>109</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
@@ -1241,10 +1253,10 @@
         <v>1</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
@@ -1253,8 +1265,12 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="11"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="4"/>
+      <c r="B19" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>103</v>
+      </c>
       <c r="D19" s="4"/>
       <c r="E19" s="4"/>
       <c r="F19" s="4"/>
@@ -1265,10 +1281,10 @@
         <v>2</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
@@ -1277,9 +1293,11 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="11"/>
-      <c r="B21" s="4"/>
+      <c r="B21" s="4" t="s">
+        <v>111</v>
+      </c>
       <c r="C21" s="3" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
@@ -1290,7 +1308,9 @@
       <c r="A22" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="B22" s="3"/>
+      <c r="B22" s="3" t="s">
+        <v>62</v>
+      </c>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
@@ -1436,29 +1456,29 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="30" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B2" s="22"/>
       <c r="C2" s="23"/>
       <c r="E2" s="21" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F2" s="22"/>
       <c r="G2" s="23"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B3" s="25"/>
       <c r="C3" s="25"/>
       <c r="E3" s="8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F3" s="24">
         <v>43282</v>
@@ -1467,103 +1487,103 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B4" s="25"/>
       <c r="C4" s="25"/>
       <c r="E4" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F4" s="25" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G4" s="25"/>
     </row>
     <row r="5" spans="1:7" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B5" s="26"/>
       <c r="C5" s="26"/>
       <c r="E5" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F5" s="26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G5" s="26"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B6" s="25"/>
       <c r="C6" s="25"/>
       <c r="E6" s="10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F6" s="25" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G6" s="25"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="27" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B7" s="28"/>
       <c r="C7" s="29"/>
       <c r="E7" s="27" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F7" s="28"/>
       <c r="G7" s="29"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="C8" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="9" t="s">
-        <v>17</v>
-      </c>
       <c r="E8" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="F8" s="9" t="s">
+      <c r="G8" s="9" t="s">
         <v>16</v>
-      </c>
-      <c r="G8" s="9" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="E9" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F9" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="F9" s="2" t="s">
-        <v>29</v>
-      </c>
       <c r="G9" s="31" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
       <c r="E10" s="7"/>
       <c r="F10" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G10" s="32"/>
     </row>
@@ -1573,24 +1593,24 @@
       <c r="C11" s="4"/>
       <c r="E11" s="6"/>
       <c r="F11" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G11" s="33"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="E12" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G12" s="31" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
@@ -1598,10 +1618,10 @@
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
       <c r="E13" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G13" s="32"/>
     </row>
@@ -1615,18 +1635,18 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B15" s="5"/>
       <c r="C15" s="2"/>
       <c r="E15" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G15" s="31" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
@@ -1634,10 +1654,10 @@
       <c r="B16" s="7"/>
       <c r="C16" s="3"/>
       <c r="E16" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G16" s="32"/>
     </row>
@@ -1651,18 +1671,18 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="E18" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G18" s="31" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
@@ -1670,10 +1690,10 @@
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
       <c r="E19" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G19" s="32"/>
     </row>
@@ -1687,18 +1707,18 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="E21" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G21" s="34" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
@@ -1706,10 +1726,10 @@
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
       <c r="E22" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G22" s="35"/>
     </row>
@@ -1723,18 +1743,18 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="E24" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G24" s="31" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
@@ -1742,10 +1762,10 @@
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
       <c r="E25" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G25" s="32"/>
     </row>
@@ -1759,41 +1779,41 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B27" s="15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C27" s="16"/>
       <c r="E27" s="12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F27" s="15" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G27" s="16"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="13"/>
       <c r="B28" s="17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C28" s="18"/>
       <c r="E28" s="13"/>
       <c r="F28" s="17" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G28" s="18"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="14"/>
       <c r="B29" s="19" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C29" s="20"/>
       <c r="E29" s="14"/>
       <c r="F29" s="19" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G29" s="20"/>
     </row>
@@ -1851,7 +1871,7 @@
   <sheetData>
     <row r="2" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.3">
@@ -1859,7 +1879,7 @@
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B4" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.3">
@@ -1867,13 +1887,13 @@
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B6" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C6" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D6" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.3">
@@ -1884,7 +1904,7 @@
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B9" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.3">
@@ -1892,7 +1912,7 @@
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B11" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.3">
@@ -1900,7 +1920,7 @@
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B13" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.3">
@@ -1908,13 +1928,13 @@
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B15" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C15" t="s">
+        <v>72</v>
+      </c>
+      <c r="D15" t="s">
         <v>71</v>
-      </c>
-      <c r="C15" t="s">
-        <v>74</v>
-      </c>
-      <c r="D15" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="16" spans="2:4" x14ac:dyDescent="0.3">
@@ -1925,7 +1945,7 @@
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B18" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="19" spans="2:2" x14ac:dyDescent="0.3">
@@ -1933,92 +1953,92 @@
     </row>
     <row r="20" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="22" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="24" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B24" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="26" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="28" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B28" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="30" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B30" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="32" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B32" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="34" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B34" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="36" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B36" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="38" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B38" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="40" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B40" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="42" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B42" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="44" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B44" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="46" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B46" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="48" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B48" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="50" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B50" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="52" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B52" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="54" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B54" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>

--- a/ToDoList.xlsx
+++ b/ToDoList.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\works\04_Git\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\02_GitRepoTortoise\01_Doc\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E34B718-F5BF-4ECC-A932-81367E64A553}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440"/>
   </bookViews>
   <sheets>
     <sheet name="ToDo" sheetId="1" r:id="rId1"/>
@@ -484,7 +483,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -755,6 +754,24 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -784,24 +801,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1082,11 +1081,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:G35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1098,13 +1097,13 @@
       <c r="B2" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="9" t="s">
         <v>112</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="9" t="s">
         <v>98</v>
       </c>
       <c r="F2" s="1"/>
@@ -1417,11 +1416,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A16:A17"/>
     <mergeCell ref="A34:A35"/>
     <mergeCell ref="A18:A19"/>
     <mergeCell ref="A20:A21"/>
@@ -1429,6 +1423,11 @@
     <mergeCell ref="A28:A29"/>
     <mergeCell ref="A30:A31"/>
     <mergeCell ref="A32:A33"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A16:A17"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1437,7 +1436,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1460,84 +1459,84 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="22"/>
-      <c r="C2" s="23"/>
-      <c r="E2" s="21" t="s">
+      <c r="B2" s="28"/>
+      <c r="C2" s="29"/>
+      <c r="E2" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="22"/>
-      <c r="G2" s="23"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="29"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="25"/>
-      <c r="C3" s="25"/>
+      <c r="B3" s="31"/>
+      <c r="C3" s="31"/>
       <c r="E3" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="24">
+      <c r="F3" s="30">
         <v>43282</v>
       </c>
-      <c r="G3" s="25"/>
+      <c r="G3" s="31"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="25"/>
-      <c r="C4" s="25"/>
+      <c r="B4" s="31"/>
+      <c r="C4" s="31"/>
       <c r="E4" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="25" t="s">
+      <c r="F4" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="G4" s="25"/>
+      <c r="G4" s="31"/>
     </row>
     <row r="5" spans="1:7" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="26"/>
-      <c r="C5" s="26"/>
+      <c r="B5" s="32"/>
+      <c r="C5" s="32"/>
       <c r="E5" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="26" t="s">
+      <c r="F5" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="G5" s="26"/>
+      <c r="G5" s="32"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="25"/>
-      <c r="C6" s="25"/>
+      <c r="B6" s="31"/>
+      <c r="C6" s="31"/>
       <c r="E6" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="25" t="s">
+      <c r="F6" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="G6" s="25"/>
+      <c r="G6" s="31"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="27" t="s">
+      <c r="A7" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="28"/>
-      <c r="C7" s="29"/>
-      <c r="E7" s="27" t="s">
+      <c r="B7" s="34"/>
+      <c r="C7" s="35"/>
+      <c r="E7" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="F7" s="28"/>
-      <c r="G7" s="29"/>
+      <c r="F7" s="34"/>
+      <c r="G7" s="35"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="8" t="s">
@@ -1571,7 +1570,7 @@
       <c r="F9" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="G9" s="31" t="s">
+      <c r="G9" s="21" t="s">
         <v>31</v>
       </c>
     </row>
@@ -1585,7 +1584,7 @@
       <c r="F10" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="G10" s="32"/>
+      <c r="G10" s="22"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="6"/>
@@ -1595,7 +1594,7 @@
       <c r="F11" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="G11" s="33"/>
+      <c r="G11" s="23"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
@@ -1609,7 +1608,7 @@
       <c r="F12" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="G12" s="31" t="s">
+      <c r="G12" s="21" t="s">
         <v>31</v>
       </c>
     </row>
@@ -1623,7 +1622,7 @@
       <c r="F13" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="G13" s="32"/>
+      <c r="G13" s="22"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="6"/>
@@ -1631,7 +1630,7 @@
       <c r="C14" s="4"/>
       <c r="E14" s="6"/>
       <c r="F14" s="4"/>
-      <c r="G14" s="33"/>
+      <c r="G14" s="23"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
@@ -1645,7 +1644,7 @@
       <c r="F15" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="G15" s="31" t="s">
+      <c r="G15" s="21" t="s">
         <v>31</v>
       </c>
     </row>
@@ -1659,7 +1658,7 @@
       <c r="F16" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="G16" s="32"/>
+      <c r="G16" s="22"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="6"/>
@@ -1667,7 +1666,7 @@
       <c r="C17" s="4"/>
       <c r="E17" s="6"/>
       <c r="F17" s="6"/>
-      <c r="G17" s="33"/>
+      <c r="G17" s="23"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
@@ -1681,7 +1680,7 @@
       <c r="F18" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="G18" s="31" t="s">
+      <c r="G18" s="21" t="s">
         <v>32</v>
       </c>
     </row>
@@ -1695,7 +1694,7 @@
       <c r="F19" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="G19" s="32"/>
+      <c r="G19" s="22"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="6"/>
@@ -1703,7 +1702,7 @@
       <c r="C20" s="4"/>
       <c r="E20" s="6"/>
       <c r="F20" s="4"/>
-      <c r="G20" s="33"/>
+      <c r="G20" s="23"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
@@ -1717,7 +1716,7 @@
       <c r="F21" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="G21" s="34" t="s">
+      <c r="G21" s="24" t="s">
         <v>49</v>
       </c>
     </row>
@@ -1731,7 +1730,7 @@
       <c r="F22" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="G22" s="35"/>
+      <c r="G22" s="25"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="6"/>
@@ -1739,7 +1738,7 @@
       <c r="C23" s="4"/>
       <c r="E23" s="6"/>
       <c r="F23" s="4"/>
-      <c r="G23" s="36"/>
+      <c r="G23" s="26"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="5" t="s">
@@ -1753,7 +1752,7 @@
       <c r="F24" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="G24" s="31" t="s">
+      <c r="G24" s="21" t="s">
         <v>31</v>
       </c>
     </row>
@@ -1767,7 +1766,7 @@
       <c r="F25" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="G25" s="32"/>
+      <c r="G25" s="22"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="4"/>
@@ -1775,7 +1774,7 @@
       <c r="C26" s="4"/>
       <c r="E26" s="4"/>
       <c r="F26" s="4"/>
-      <c r="G26" s="33"/>
+      <c r="G26" s="23"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="12" t="s">
@@ -1819,16 +1818,6 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="E27:E29"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="G9:G11"/>
-    <mergeCell ref="G12:G14"/>
-    <mergeCell ref="G15:G17"/>
-    <mergeCell ref="G18:G20"/>
-    <mergeCell ref="G21:G23"/>
-    <mergeCell ref="G24:G26"/>
     <mergeCell ref="A27:A29"/>
     <mergeCell ref="B27:C27"/>
     <mergeCell ref="B28:C28"/>
@@ -1845,6 +1834,16 @@
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="A7:C7"/>
+    <mergeCell ref="E27:E29"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="G9:G11"/>
+    <mergeCell ref="G12:G14"/>
+    <mergeCell ref="G15:G17"/>
+    <mergeCell ref="G18:G20"/>
+    <mergeCell ref="G21:G23"/>
+    <mergeCell ref="G24:G26"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1856,7 +1855,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:D54"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">

--- a/ToDoList.xlsx
+++ b/ToDoList.xlsx
@@ -15,6 +15,7 @@
     <sheet name="ToDo" sheetId="1" r:id="rId1"/>
     <sheet name="MAP" sheetId="2" r:id="rId2"/>
     <sheet name="Ref" sheetId="3" r:id="rId3"/>
+    <sheet name="Tips" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="123">
   <si>
     <t>Task1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -416,18 +417,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>과거로 돌아가기(reset)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>인프런 지옥에서 온 Git(H)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>버전관리의 본질</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>인프런 Git GitHub(W)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -477,6 +470,54 @@
   </si>
   <si>
     <t>C언어 코딩도장(H)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>문제 해결 방법</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 매뉴얼을 보는 것</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2. 커뮤니티에 질문하는 것</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3. 검색하는 것</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>위의 세 가지를 잘 할 줄 알면 어떤 문제도 짧은 시간 안에 해결할 수 있으며 실력 향상에도 매우 효과적이다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>커뮤니티에 질문하는 방법 ST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>질문 커뮤니티 알아보기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>결과 분석하기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>git의 원리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>git의 원리 소개</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>커뮤니티 선정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>선정된 커뮤니티에 질문하기</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1085,7 +1126,7 @@
   <dimension ref="A2:G35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1095,18 +1136,20 @@
   <sheetData>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="F2" s="1"/>
+        <v>97</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>116</v>
+      </c>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7" ht="5.25" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1115,7 +1158,7 @@
         <v>0</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>4</v>
@@ -1124,15 +1167,17 @@
         <v>6</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="F4" s="2"/>
+        <v>119</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>117</v>
+      </c>
       <c r="G4" s="2"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="11"/>
       <c r="B5" s="4" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>93</v>
@@ -1141,9 +1186,11 @@
         <v>7</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="F5" s="3"/>
+        <v>120</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>121</v>
+      </c>
       <c r="G5" s="3"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
@@ -1154,7 +1201,9 @@
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
+      <c r="F6" s="2" t="s">
+        <v>122</v>
+      </c>
       <c r="G6" s="2"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
@@ -1174,7 +1223,9 @@
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
+      <c r="F8" s="3" t="s">
+        <v>118</v>
+      </c>
       <c r="G8" s="3"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
@@ -1224,10 +1275,10 @@
         <v>0</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
@@ -1237,7 +1288,7 @@
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="11"/>
       <c r="B17" s="4" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>95</v>
@@ -1252,7 +1303,7 @@
         <v>1</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>96</v>
@@ -1265,10 +1316,10 @@
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="11"/>
       <c r="B19" s="3" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D19" s="4"/>
       <c r="E19" s="4"/>
@@ -1283,7 +1334,7 @@
         <v>62</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
@@ -1293,10 +1344,10 @@
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="11"/>
       <c r="B21" s="4" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
@@ -2044,4 +2095,45 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:C6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="2" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C4" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C5" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C6" t="s">
+        <v>115</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/ToDoList.xlsx
+++ b/ToDoList.xlsx
@@ -453,14 +453,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Virtual Box 환경설정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Eth, Qt5 Install</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Serial Port setup and test</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -518,6 +510,14 @@
   </si>
   <si>
     <t>선정된 커뮤니티에 질문하기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Virtual Box</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S006_Tips~.docx(Eth, Qt5 Install)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -795,6 +795,36 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -812,36 +842,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1126,7 +1126,7 @@
   <dimension ref="A2:G35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1139,7 +1139,7 @@
         <v>98</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>5</v>
@@ -1148,7 +1148,7 @@
         <v>97</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="G2" s="1"/>
     </row>
@@ -1167,10 +1167,10 @@
         <v>6</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="G4" s="2"/>
     </row>
@@ -1186,10 +1186,10 @@
         <v>7</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="G5" s="3"/>
     </row>
@@ -1202,7 +1202,7 @@
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="G6" s="2"/>
     </row>
@@ -1224,7 +1224,7 @@
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
       <c r="F8" s="3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G8" s="3"/>
     </row>
@@ -1275,7 +1275,7 @@
         <v>0</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>106</v>
+        <v>121</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>100</v>
@@ -1288,7 +1288,7 @@
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="11"/>
       <c r="B17" s="4" t="s">
-        <v>107</v>
+        <v>122</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>95</v>
@@ -1316,7 +1316,7 @@
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="11"/>
       <c r="B19" s="3" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>101</v>
@@ -1344,7 +1344,7 @@
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="11"/>
       <c r="B21" s="4" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>103</v>
@@ -1467,6 +1467,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A16:A17"/>
     <mergeCell ref="A34:A35"/>
     <mergeCell ref="A18:A19"/>
     <mergeCell ref="A20:A21"/>
@@ -1474,11 +1479,6 @@
     <mergeCell ref="A28:A29"/>
     <mergeCell ref="A30:A31"/>
     <mergeCell ref="A32:A33"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A16:A17"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1510,84 +1510,84 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="36" t="s">
+      <c r="A2" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="28"/>
-      <c r="C2" s="29"/>
-      <c r="E2" s="27" t="s">
+      <c r="B2" s="22"/>
+      <c r="C2" s="23"/>
+      <c r="E2" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="28"/>
-      <c r="G2" s="29"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="23"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="31"/>
-      <c r="C3" s="31"/>
+      <c r="B3" s="25"/>
+      <c r="C3" s="25"/>
       <c r="E3" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="30">
+      <c r="F3" s="24">
         <v>43282</v>
       </c>
-      <c r="G3" s="31"/>
+      <c r="G3" s="25"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="31"/>
-      <c r="C4" s="31"/>
+      <c r="B4" s="25"/>
+      <c r="C4" s="25"/>
       <c r="E4" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="31" t="s">
+      <c r="F4" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="G4" s="31"/>
+      <c r="G4" s="25"/>
     </row>
     <row r="5" spans="1:7" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="32"/>
-      <c r="C5" s="32"/>
+      <c r="B5" s="26"/>
+      <c r="C5" s="26"/>
       <c r="E5" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="32" t="s">
+      <c r="F5" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="G5" s="32"/>
+      <c r="G5" s="26"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="31"/>
-      <c r="C6" s="31"/>
+      <c r="B6" s="25"/>
+      <c r="C6" s="25"/>
       <c r="E6" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="31" t="s">
+      <c r="F6" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="G6" s="31"/>
+      <c r="G6" s="25"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="33" t="s">
+      <c r="A7" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="34"/>
-      <c r="C7" s="35"/>
-      <c r="E7" s="33" t="s">
+      <c r="B7" s="28"/>
+      <c r="C7" s="29"/>
+      <c r="E7" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="F7" s="34"/>
-      <c r="G7" s="35"/>
+      <c r="F7" s="28"/>
+      <c r="G7" s="29"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="8" t="s">
@@ -1621,7 +1621,7 @@
       <c r="F9" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="G9" s="21" t="s">
+      <c r="G9" s="31" t="s">
         <v>31</v>
       </c>
     </row>
@@ -1635,7 +1635,7 @@
       <c r="F10" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="G10" s="22"/>
+      <c r="G10" s="32"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="6"/>
@@ -1645,7 +1645,7 @@
       <c r="F11" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="G11" s="23"/>
+      <c r="G11" s="33"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
@@ -1659,7 +1659,7 @@
       <c r="F12" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="G12" s="21" t="s">
+      <c r="G12" s="31" t="s">
         <v>31</v>
       </c>
     </row>
@@ -1673,7 +1673,7 @@
       <c r="F13" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="G13" s="22"/>
+      <c r="G13" s="32"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="6"/>
@@ -1681,7 +1681,7 @@
       <c r="C14" s="4"/>
       <c r="E14" s="6"/>
       <c r="F14" s="4"/>
-      <c r="G14" s="23"/>
+      <c r="G14" s="33"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
@@ -1695,7 +1695,7 @@
       <c r="F15" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="G15" s="21" t="s">
+      <c r="G15" s="31" t="s">
         <v>31</v>
       </c>
     </row>
@@ -1709,7 +1709,7 @@
       <c r="F16" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="G16" s="22"/>
+      <c r="G16" s="32"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="6"/>
@@ -1717,7 +1717,7 @@
       <c r="C17" s="4"/>
       <c r="E17" s="6"/>
       <c r="F17" s="6"/>
-      <c r="G17" s="23"/>
+      <c r="G17" s="33"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
@@ -1731,7 +1731,7 @@
       <c r="F18" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="G18" s="21" t="s">
+      <c r="G18" s="31" t="s">
         <v>32</v>
       </c>
     </row>
@@ -1745,7 +1745,7 @@
       <c r="F19" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="G19" s="22"/>
+      <c r="G19" s="32"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="6"/>
@@ -1753,7 +1753,7 @@
       <c r="C20" s="4"/>
       <c r="E20" s="6"/>
       <c r="F20" s="4"/>
-      <c r="G20" s="23"/>
+      <c r="G20" s="33"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
@@ -1767,7 +1767,7 @@
       <c r="F21" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="G21" s="24" t="s">
+      <c r="G21" s="34" t="s">
         <v>49</v>
       </c>
     </row>
@@ -1781,7 +1781,7 @@
       <c r="F22" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="G22" s="25"/>
+      <c r="G22" s="35"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="6"/>
@@ -1789,7 +1789,7 @@
       <c r="C23" s="4"/>
       <c r="E23" s="6"/>
       <c r="F23" s="4"/>
-      <c r="G23" s="26"/>
+      <c r="G23" s="36"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="5" t="s">
@@ -1803,7 +1803,7 @@
       <c r="F24" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="G24" s="21" t="s">
+      <c r="G24" s="31" t="s">
         <v>31</v>
       </c>
     </row>
@@ -1817,7 +1817,7 @@
       <c r="F25" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="G25" s="22"/>
+      <c r="G25" s="32"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="4"/>
@@ -1825,7 +1825,7 @@
       <c r="C26" s="4"/>
       <c r="E26" s="4"/>
       <c r="F26" s="4"/>
-      <c r="G26" s="23"/>
+      <c r="G26" s="33"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="12" t="s">
@@ -1869,6 +1869,16 @@
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="E27:E29"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="G9:G11"/>
+    <mergeCell ref="G12:G14"/>
+    <mergeCell ref="G15:G17"/>
+    <mergeCell ref="G18:G20"/>
+    <mergeCell ref="G21:G23"/>
+    <mergeCell ref="G24:G26"/>
     <mergeCell ref="A27:A29"/>
     <mergeCell ref="B27:C27"/>
     <mergeCell ref="B28:C28"/>
@@ -1885,16 +1895,6 @@
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="A7:C7"/>
-    <mergeCell ref="E27:E29"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="G9:G11"/>
-    <mergeCell ref="G12:G14"/>
-    <mergeCell ref="G15:G17"/>
-    <mergeCell ref="G18:G20"/>
-    <mergeCell ref="G21:G23"/>
-    <mergeCell ref="G24:G26"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2109,27 +2109,27 @@
   <sheetData>
     <row r="2" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
   </sheetData>

--- a/ToDoList.xlsx
+++ b/ToDoList.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\02_GitRepoTortoise\01_Doc\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\works\04_Git\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90472596-652B-4526-9D2A-655C1AC3A8F5}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ToDo" sheetId="1" r:id="rId1"/>
@@ -449,14 +450,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">Virtual Box </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Serial Port setup and test</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>API(GT) include Qt5 test</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -518,13 +511,21 @@
   </si>
   <si>
     <t>S006_Tips~.docx(Eth, Qt5 Install)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Qt5EmulatorR2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>basic, using git</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -558,7 +559,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -580,6 +581,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -731,7 +738,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -795,6 +802,24 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -825,23 +850,8 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1122,11 +1132,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:G35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1135,11 +1145,11 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="37" t="s">
         <v>98</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>5</v>
@@ -1148,7 +1158,7 @@
         <v>97</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="G2" s="1"/>
     </row>
@@ -1167,10 +1177,10 @@
         <v>6</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G4" s="2"/>
     </row>
@@ -1186,10 +1196,10 @@
         <v>7</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="G5" s="3"/>
     </row>
@@ -1202,7 +1212,7 @@
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="G6" s="2"/>
     </row>
@@ -1224,7 +1234,7 @@
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
       <c r="F8" s="3" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="G8" s="3"/>
     </row>
@@ -1258,10 +1268,10 @@
       <c r="G11" s="4"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B14" s="1" t="s">
+      <c r="B14" s="37" t="s">
         <v>61</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C14" s="37" t="s">
         <v>94</v>
       </c>
       <c r="D14" s="1"/>
@@ -1275,7 +1285,7 @@
         <v>0</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>100</v>
@@ -1288,7 +1298,7 @@
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="11"/>
       <c r="B17" s="4" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>95</v>
@@ -1303,7 +1313,7 @@
         <v>1</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>105</v>
+        <v>121</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>96</v>
@@ -1316,7 +1326,7 @@
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="11"/>
       <c r="B19" s="3" t="s">
-        <v>106</v>
+        <v>122</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>101</v>
@@ -1344,7 +1354,7 @@
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="11"/>
       <c r="B21" s="4" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>103</v>
@@ -1467,11 +1477,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A16:A17"/>
     <mergeCell ref="A34:A35"/>
     <mergeCell ref="A18:A19"/>
     <mergeCell ref="A20:A21"/>
@@ -1479,6 +1484,11 @@
     <mergeCell ref="A28:A29"/>
     <mergeCell ref="A30:A31"/>
     <mergeCell ref="A32:A33"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A16:A17"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1487,7 +1497,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1510,84 +1520,84 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="22"/>
-      <c r="C2" s="23"/>
-      <c r="E2" s="21" t="s">
+      <c r="B2" s="28"/>
+      <c r="C2" s="29"/>
+      <c r="E2" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="22"/>
-      <c r="G2" s="23"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="29"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="25"/>
-      <c r="C3" s="25"/>
+      <c r="B3" s="31"/>
+      <c r="C3" s="31"/>
       <c r="E3" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="24">
+      <c r="F3" s="30">
         <v>43282</v>
       </c>
-      <c r="G3" s="25"/>
+      <c r="G3" s="31"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="25"/>
-      <c r="C4" s="25"/>
+      <c r="B4" s="31"/>
+      <c r="C4" s="31"/>
       <c r="E4" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="25" t="s">
+      <c r="F4" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="G4" s="25"/>
+      <c r="G4" s="31"/>
     </row>
     <row r="5" spans="1:7" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="26"/>
-      <c r="C5" s="26"/>
+      <c r="B5" s="32"/>
+      <c r="C5" s="32"/>
       <c r="E5" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="26" t="s">
+      <c r="F5" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="G5" s="26"/>
+      <c r="G5" s="32"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="25"/>
-      <c r="C6" s="25"/>
+      <c r="B6" s="31"/>
+      <c r="C6" s="31"/>
       <c r="E6" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="25" t="s">
+      <c r="F6" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="G6" s="25"/>
+      <c r="G6" s="31"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="27" t="s">
+      <c r="A7" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="28"/>
-      <c r="C7" s="29"/>
-      <c r="E7" s="27" t="s">
+      <c r="B7" s="34"/>
+      <c r="C7" s="35"/>
+      <c r="E7" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="F7" s="28"/>
-      <c r="G7" s="29"/>
+      <c r="F7" s="34"/>
+      <c r="G7" s="35"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="8" t="s">
@@ -1621,7 +1631,7 @@
       <c r="F9" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="G9" s="31" t="s">
+      <c r="G9" s="21" t="s">
         <v>31</v>
       </c>
     </row>
@@ -1635,7 +1645,7 @@
       <c r="F10" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="G10" s="32"/>
+      <c r="G10" s="22"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="6"/>
@@ -1645,7 +1655,7 @@
       <c r="F11" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="G11" s="33"/>
+      <c r="G11" s="23"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
@@ -1659,7 +1669,7 @@
       <c r="F12" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="G12" s="31" t="s">
+      <c r="G12" s="21" t="s">
         <v>31</v>
       </c>
     </row>
@@ -1673,7 +1683,7 @@
       <c r="F13" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="G13" s="32"/>
+      <c r="G13" s="22"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="6"/>
@@ -1681,7 +1691,7 @@
       <c r="C14" s="4"/>
       <c r="E14" s="6"/>
       <c r="F14" s="4"/>
-      <c r="G14" s="33"/>
+      <c r="G14" s="23"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
@@ -1695,7 +1705,7 @@
       <c r="F15" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="G15" s="31" t="s">
+      <c r="G15" s="21" t="s">
         <v>31</v>
       </c>
     </row>
@@ -1709,7 +1719,7 @@
       <c r="F16" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="G16" s="32"/>
+      <c r="G16" s="22"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="6"/>
@@ -1717,7 +1727,7 @@
       <c r="C17" s="4"/>
       <c r="E17" s="6"/>
       <c r="F17" s="6"/>
-      <c r="G17" s="33"/>
+      <c r="G17" s="23"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
@@ -1731,7 +1741,7 @@
       <c r="F18" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="G18" s="31" t="s">
+      <c r="G18" s="21" t="s">
         <v>32</v>
       </c>
     </row>
@@ -1745,7 +1755,7 @@
       <c r="F19" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="G19" s="32"/>
+      <c r="G19" s="22"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="6"/>
@@ -1753,7 +1763,7 @@
       <c r="C20" s="4"/>
       <c r="E20" s="6"/>
       <c r="F20" s="4"/>
-      <c r="G20" s="33"/>
+      <c r="G20" s="23"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
@@ -1767,7 +1777,7 @@
       <c r="F21" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="G21" s="34" t="s">
+      <c r="G21" s="24" t="s">
         <v>49</v>
       </c>
     </row>
@@ -1781,7 +1791,7 @@
       <c r="F22" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="G22" s="35"/>
+      <c r="G22" s="25"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="6"/>
@@ -1789,7 +1799,7 @@
       <c r="C23" s="4"/>
       <c r="E23" s="6"/>
       <c r="F23" s="4"/>
-      <c r="G23" s="36"/>
+      <c r="G23" s="26"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="5" t="s">
@@ -1803,7 +1813,7 @@
       <c r="F24" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="G24" s="31" t="s">
+      <c r="G24" s="21" t="s">
         <v>31</v>
       </c>
     </row>
@@ -1817,7 +1827,7 @@
       <c r="F25" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="G25" s="32"/>
+      <c r="G25" s="22"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="4"/>
@@ -1825,7 +1835,7 @@
       <c r="C26" s="4"/>
       <c r="E26" s="4"/>
       <c r="F26" s="4"/>
-      <c r="G26" s="33"/>
+      <c r="G26" s="23"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="12" t="s">
@@ -1869,16 +1879,6 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="E27:E29"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="G9:G11"/>
-    <mergeCell ref="G12:G14"/>
-    <mergeCell ref="G15:G17"/>
-    <mergeCell ref="G18:G20"/>
-    <mergeCell ref="G21:G23"/>
-    <mergeCell ref="G24:G26"/>
     <mergeCell ref="A27:A29"/>
     <mergeCell ref="B27:C27"/>
     <mergeCell ref="B28:C28"/>
@@ -1895,6 +1895,16 @@
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="A7:C7"/>
+    <mergeCell ref="E27:E29"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="G9:G11"/>
+    <mergeCell ref="G12:G14"/>
+    <mergeCell ref="G15:G17"/>
+    <mergeCell ref="G18:G20"/>
+    <mergeCell ref="G21:G23"/>
+    <mergeCell ref="G24:G26"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1906,7 +1916,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B2:D54"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -2098,7 +2108,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B2:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2109,27 +2119,27 @@
   <sheetData>
     <row r="2" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
   </sheetData>

--- a/ToDoList.xlsx
+++ b/ToDoList.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\works\04_Git\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\02_GitRepoTortoise\01_Doc\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90472596-652B-4526-9D2A-655C1AC3A8F5}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="ToDo" sheetId="1" r:id="rId1"/>
@@ -28,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="122">
   <si>
     <t>Task1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -506,26 +505,22 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Virtual Box</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>S006_Tips~.docx(Eth, Qt5 Install)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Qt5EmulatorR2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>basic, using git</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cake</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -772,6 +767,9 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -849,9 +847,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1132,11 +1127,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:G35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1145,7 +1140,7 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B2" s="37" t="s">
+      <c r="B2" s="11" t="s">
         <v>98</v>
       </c>
       <c r="C2" s="9" t="s">
@@ -1160,11 +1155,13 @@
       <c r="F2" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="G2" s="1"/>
+      <c r="G2" s="1" t="s">
+        <v>121</v>
+      </c>
     </row>
     <row r="3" spans="1:7" ht="5.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="12" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -1185,7 +1182,7 @@
       <c r="G4" s="2"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="11"/>
+      <c r="A5" s="12"/>
       <c r="B5" s="4" t="s">
         <v>104</v>
       </c>
@@ -1204,7 +1201,7 @@
       <c r="G5" s="3"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="12" t="s">
         <v>1</v>
       </c>
       <c r="B6" s="2"/>
@@ -1217,7 +1214,7 @@
       <c r="G6" s="2"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="11"/>
+      <c r="A7" s="12"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
@@ -1226,7 +1223,7 @@
       <c r="G7" s="4"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="11" t="s">
+      <c r="A8" s="12" t="s">
         <v>2</v>
       </c>
       <c r="B8" s="3"/>
@@ -1239,7 +1236,7 @@
       <c r="G8" s="3"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="11"/>
+      <c r="A9" s="12"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
@@ -1248,7 +1245,7 @@
       <c r="G9" s="3"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="11" t="s">
+      <c r="A10" s="12" t="s">
         <v>3</v>
       </c>
       <c r="B10" s="2"/>
@@ -1259,7 +1256,7 @@
       <c r="G10" s="2"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="11"/>
+      <c r="A11" s="12"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
@@ -1268,10 +1265,10 @@
       <c r="G11" s="4"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B14" s="37" t="s">
+      <c r="B14" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="C14" s="37" t="s">
+      <c r="C14" s="11" t="s">
         <v>94</v>
       </c>
       <c r="D14" s="1"/>
@@ -1281,12 +1278,10 @@
     </row>
     <row r="15" spans="1:7" ht="5.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="11" t="s">
+      <c r="A16" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B16" s="2" t="s">
-        <v>119</v>
-      </c>
+      <c r="B16" s="2"/>
       <c r="C16" s="2" t="s">
         <v>100</v>
       </c>
@@ -1296,10 +1291,8 @@
       <c r="G16" s="2"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="11"/>
-      <c r="B17" s="4" t="s">
-        <v>120</v>
-      </c>
+      <c r="A17" s="12"/>
+      <c r="B17" s="4"/>
       <c r="C17" s="3" t="s">
         <v>95</v>
       </c>
@@ -1309,11 +1302,11 @@
       <c r="G17" s="3"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" s="11" t="s">
+      <c r="A18" s="12" t="s">
         <v>1</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>96</v>
@@ -1324,9 +1317,9 @@
       <c r="G18" s="2"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" s="11"/>
+      <c r="A19" s="12"/>
       <c r="B19" s="3" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>101</v>
@@ -1337,7 +1330,7 @@
       <c r="G19" s="4"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" s="11" t="s">
+      <c r="A20" s="12" t="s">
         <v>2</v>
       </c>
       <c r="B20" s="2" t="s">
@@ -1352,7 +1345,7 @@
       <c r="G20" s="3"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21" s="11"/>
+      <c r="A21" s="12"/>
       <c r="B21" s="4" t="s">
         <v>105</v>
       </c>
@@ -1365,7 +1358,7 @@
       <c r="G21" s="3"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22" s="11" t="s">
+      <c r="A22" s="12" t="s">
         <v>3</v>
       </c>
       <c r="B22" s="3" t="s">
@@ -1378,7 +1371,7 @@
       <c r="G22" s="2"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23" s="11"/>
+      <c r="A23" s="12"/>
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
       <c r="D23" s="4"/>
@@ -1396,7 +1389,7 @@
     </row>
     <row r="27" spans="1:7" ht="5.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A28" s="11" t="s">
+      <c r="A28" s="12" t="s">
         <v>0</v>
       </c>
       <c r="B28" s="2"/>
@@ -1407,7 +1400,7 @@
       <c r="G28" s="2"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A29" s="11"/>
+      <c r="A29" s="12"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
@@ -1416,7 +1409,7 @@
       <c r="G29" s="3"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A30" s="11" t="s">
+      <c r="A30" s="12" t="s">
         <v>1</v>
       </c>
       <c r="B30" s="2"/>
@@ -1427,7 +1420,7 @@
       <c r="G30" s="2"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A31" s="11"/>
+      <c r="A31" s="12"/>
       <c r="B31" s="4"/>
       <c r="C31" s="4"/>
       <c r="D31" s="4"/>
@@ -1436,7 +1429,7 @@
       <c r="G31" s="4"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A32" s="11" t="s">
+      <c r="A32" s="12" t="s">
         <v>2</v>
       </c>
       <c r="B32" s="3"/>
@@ -1447,7 +1440,7 @@
       <c r="G32" s="3"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A33" s="11"/>
+      <c r="A33" s="12"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
       <c r="D33" s="3"/>
@@ -1456,7 +1449,7 @@
       <c r="G33" s="3"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A34" s="11" t="s">
+      <c r="A34" s="12" t="s">
         <v>3</v>
       </c>
       <c r="B34" s="2"/>
@@ -1467,7 +1460,7 @@
       <c r="G34" s="2"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A35" s="11"/>
+      <c r="A35" s="12"/>
       <c r="B35" s="4"/>
       <c r="C35" s="4"/>
       <c r="D35" s="4"/>
@@ -1497,7 +1490,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1520,84 +1513,84 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="36" t="s">
+      <c r="A2" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="28"/>
-      <c r="C2" s="29"/>
-      <c r="E2" s="27" t="s">
+      <c r="B2" s="29"/>
+      <c r="C2" s="30"/>
+      <c r="E2" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="28"/>
-      <c r="G2" s="29"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="30"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="31"/>
-      <c r="C3" s="31"/>
+      <c r="B3" s="32"/>
+      <c r="C3" s="32"/>
       <c r="E3" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="30">
+      <c r="F3" s="31">
         <v>43282</v>
       </c>
-      <c r="G3" s="31"/>
+      <c r="G3" s="32"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="31"/>
-      <c r="C4" s="31"/>
+      <c r="B4" s="32"/>
+      <c r="C4" s="32"/>
       <c r="E4" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="31" t="s">
+      <c r="F4" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="G4" s="31"/>
+      <c r="G4" s="32"/>
     </row>
     <row r="5" spans="1:7" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="32"/>
-      <c r="C5" s="32"/>
+      <c r="B5" s="33"/>
+      <c r="C5" s="33"/>
       <c r="E5" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="32" t="s">
+      <c r="F5" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="G5" s="32"/>
+      <c r="G5" s="33"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="31"/>
-      <c r="C6" s="31"/>
+      <c r="B6" s="32"/>
+      <c r="C6" s="32"/>
       <c r="E6" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="31" t="s">
+      <c r="F6" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="G6" s="31"/>
+      <c r="G6" s="32"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="33" t="s">
+      <c r="A7" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="34"/>
-      <c r="C7" s="35"/>
-      <c r="E7" s="33" t="s">
+      <c r="B7" s="35"/>
+      <c r="C7" s="36"/>
+      <c r="E7" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="F7" s="34"/>
-      <c r="G7" s="35"/>
+      <c r="F7" s="35"/>
+      <c r="G7" s="36"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="8" t="s">
@@ -1631,7 +1624,7 @@
       <c r="F9" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="G9" s="21" t="s">
+      <c r="G9" s="22" t="s">
         <v>31</v>
       </c>
     </row>
@@ -1645,7 +1638,7 @@
       <c r="F10" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="G10" s="22"/>
+      <c r="G10" s="23"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="6"/>
@@ -1655,7 +1648,7 @@
       <c r="F11" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="G11" s="23"/>
+      <c r="G11" s="24"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
@@ -1669,7 +1662,7 @@
       <c r="F12" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="G12" s="21" t="s">
+      <c r="G12" s="22" t="s">
         <v>31</v>
       </c>
     </row>
@@ -1683,7 +1676,7 @@
       <c r="F13" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="G13" s="22"/>
+      <c r="G13" s="23"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="6"/>
@@ -1691,7 +1684,7 @@
       <c r="C14" s="4"/>
       <c r="E14" s="6"/>
       <c r="F14" s="4"/>
-      <c r="G14" s="23"/>
+      <c r="G14" s="24"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
@@ -1705,7 +1698,7 @@
       <c r="F15" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="G15" s="21" t="s">
+      <c r="G15" s="22" t="s">
         <v>31</v>
       </c>
     </row>
@@ -1719,7 +1712,7 @@
       <c r="F16" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="G16" s="22"/>
+      <c r="G16" s="23"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="6"/>
@@ -1727,7 +1720,7 @@
       <c r="C17" s="4"/>
       <c r="E17" s="6"/>
       <c r="F17" s="6"/>
-      <c r="G17" s="23"/>
+      <c r="G17" s="24"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
@@ -1741,7 +1734,7 @@
       <c r="F18" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="G18" s="21" t="s">
+      <c r="G18" s="22" t="s">
         <v>32</v>
       </c>
     </row>
@@ -1755,7 +1748,7 @@
       <c r="F19" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="G19" s="22"/>
+      <c r="G19" s="23"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="6"/>
@@ -1763,7 +1756,7 @@
       <c r="C20" s="4"/>
       <c r="E20" s="6"/>
       <c r="F20" s="4"/>
-      <c r="G20" s="23"/>
+      <c r="G20" s="24"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
@@ -1777,7 +1770,7 @@
       <c r="F21" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="G21" s="24" t="s">
+      <c r="G21" s="25" t="s">
         <v>49</v>
       </c>
     </row>
@@ -1791,7 +1784,7 @@
       <c r="F22" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="G22" s="25"/>
+      <c r="G22" s="26"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="6"/>
@@ -1799,7 +1792,7 @@
       <c r="C23" s="4"/>
       <c r="E23" s="6"/>
       <c r="F23" s="4"/>
-      <c r="G23" s="26"/>
+      <c r="G23" s="27"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="5" t="s">
@@ -1813,7 +1806,7 @@
       <c r="F24" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="G24" s="21" t="s">
+      <c r="G24" s="22" t="s">
         <v>31</v>
       </c>
     </row>
@@ -1827,7 +1820,7 @@
       <c r="F25" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="G25" s="22"/>
+      <c r="G25" s="23"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="4"/>
@@ -1835,47 +1828,47 @@
       <c r="C26" s="4"/>
       <c r="E26" s="4"/>
       <c r="F26" s="4"/>
-      <c r="G26" s="23"/>
+      <c r="G26" s="24"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A27" s="12" t="s">
+      <c r="A27" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="B27" s="15" t="s">
+      <c r="B27" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="C27" s="16"/>
-      <c r="E27" s="12" t="s">
+      <c r="C27" s="17"/>
+      <c r="E27" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="F27" s="15" t="s">
+      <c r="F27" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="G27" s="16"/>
+      <c r="G27" s="17"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A28" s="13"/>
-      <c r="B28" s="17" t="s">
+      <c r="A28" s="14"/>
+      <c r="B28" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="C28" s="18"/>
-      <c r="E28" s="13"/>
-      <c r="F28" s="17" t="s">
+      <c r="C28" s="19"/>
+      <c r="E28" s="14"/>
+      <c r="F28" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="G28" s="18"/>
+      <c r="G28" s="19"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A29" s="14"/>
-      <c r="B29" s="19" t="s">
+      <c r="A29" s="15"/>
+      <c r="B29" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="C29" s="20"/>
-      <c r="E29" s="14"/>
-      <c r="F29" s="19" t="s">
+      <c r="C29" s="21"/>
+      <c r="E29" s="15"/>
+      <c r="F29" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="G29" s="20"/>
+      <c r="G29" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="26">
@@ -1916,7 +1909,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:D54"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -2108,7 +2101,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/ToDoList.xlsx
+++ b/ToDoList.xlsx
@@ -16,6 +16,7 @@
     <sheet name="MAP" sheetId="2" r:id="rId2"/>
     <sheet name="Ref" sheetId="3" r:id="rId3"/>
     <sheet name="Tips" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="129">
   <si>
     <t>Task1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -45,10 +46,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Unit5. 변수 만들기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>YouTube-생활코딩</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -401,10 +398,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>5.4 퀴즈</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>SS BBUe</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -514,6 +507,41 @@
   </si>
   <si>
     <t>Cake</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Indivisual Work</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ext HDD 정리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A9 활용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OneDrive, Git</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C언어 코딩도장 도서 대출</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Unit6. 디버거 사용하기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.1 중단점 사용하기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D:\work\01_Book\02_C</t>
+  </si>
+  <si>
+    <t>GitLab Repository(Delete GitHub)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -800,6 +828,36 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -817,36 +875,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1131,7 +1159,7 @@
   <dimension ref="A2:G35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1141,22 +1169,22 @@
   <sheetData>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B2" s="11" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="5.25" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1165,38 +1193,38 @@
         <v>0</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>4</v>
+        <v>125</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="G4" s="2"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="12"/>
       <c r="B5" s="4" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>93</v>
+        <v>126</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="G5" s="3"/>
     </row>
@@ -1205,18 +1233,22 @@
         <v>1</v>
       </c>
       <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
+      <c r="C6" s="2" t="s">
+        <v>128</v>
+      </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G6" s="2"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="12"/>
       <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
+      <c r="C7" s="4" t="s">
+        <v>127</v>
+      </c>
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
@@ -1231,7 +1263,7 @@
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
       <c r="F8" s="3" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="G8" s="3"/>
     </row>
@@ -1266,10 +1298,10 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B14" s="11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
@@ -1283,7 +1315,7 @@
       </c>
       <c r="B16" s="2"/>
       <c r="C16" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
@@ -1294,7 +1326,7 @@
       <c r="A17" s="12"/>
       <c r="B17" s="4"/>
       <c r="C17" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
@@ -1306,10 +1338,10 @@
         <v>1</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
@@ -1319,10 +1351,10 @@
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="12"/>
       <c r="B19" s="3" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D19" s="4"/>
       <c r="E19" s="4"/>
@@ -1334,10 +1366,10 @@
         <v>2</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
@@ -1347,10 +1379,10 @@
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="12"/>
       <c r="B21" s="4" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
@@ -1362,7 +1394,7 @@
         <v>3</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
@@ -1380,7 +1412,9 @@
       <c r="G23" s="4"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B26" s="1"/>
+      <c r="B26" s="1" t="s">
+        <v>120</v>
+      </c>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
@@ -1392,8 +1426,12 @@
       <c r="A28" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
+      <c r="B28" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>124</v>
+      </c>
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
@@ -1412,7 +1450,9 @@
       <c r="A30" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B30" s="2"/>
+      <c r="B30" s="2" t="s">
+        <v>122</v>
+      </c>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
@@ -1421,7 +1461,9 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="12"/>
-      <c r="B31" s="4"/>
+      <c r="B31" s="4" t="s">
+        <v>123</v>
+      </c>
       <c r="C31" s="4"/>
       <c r="D31" s="4"/>
       <c r="E31" s="4"/>
@@ -1470,6 +1512,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A16:A17"/>
     <mergeCell ref="A34:A35"/>
     <mergeCell ref="A18:A19"/>
     <mergeCell ref="A20:A21"/>
@@ -1477,11 +1524,6 @@
     <mergeCell ref="A28:A29"/>
     <mergeCell ref="A30:A31"/>
     <mergeCell ref="A32:A33"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A16:A17"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1509,136 +1551,136 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="37" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="29"/>
-      <c r="C2" s="30"/>
-      <c r="E2" s="28" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" s="29"/>
-      <c r="G2" s="30"/>
+      <c r="A2" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="23"/>
+      <c r="C2" s="24"/>
+      <c r="E2" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="23"/>
+      <c r="G2" s="24"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="32"/>
-      <c r="C3" s="32"/>
+        <v>8</v>
+      </c>
+      <c r="B3" s="26"/>
+      <c r="C3" s="26"/>
       <c r="E3" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" s="31">
+        <v>8</v>
+      </c>
+      <c r="F3" s="25">
         <v>43282</v>
       </c>
-      <c r="G3" s="32"/>
+      <c r="G3" s="26"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="32"/>
-      <c r="C4" s="32"/>
+        <v>9</v>
+      </c>
+      <c r="B4" s="26"/>
+      <c r="C4" s="26"/>
       <c r="E4" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" s="32" t="s">
-        <v>24</v>
-      </c>
-      <c r="G4" s="32"/>
+        <v>9</v>
+      </c>
+      <c r="F4" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="G4" s="26"/>
     </row>
     <row r="5" spans="1:7" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="33"/>
-      <c r="C5" s="33"/>
+        <v>10</v>
+      </c>
+      <c r="B5" s="27"/>
+      <c r="C5" s="27"/>
       <c r="E5" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F5" s="33" t="s">
-        <v>25</v>
-      </c>
-      <c r="G5" s="33"/>
+        <v>10</v>
+      </c>
+      <c r="F5" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="G5" s="27"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="26"/>
+      <c r="C6" s="26"/>
+      <c r="E6" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="G6" s="26"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="32"/>
-      <c r="C6" s="32"/>
-      <c r="E6" s="10" t="s">
+      <c r="B7" s="29"/>
+      <c r="C7" s="30"/>
+      <c r="E7" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="32" t="s">
-        <v>26</v>
-      </c>
-      <c r="G6" s="32"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="34" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" s="35"/>
-      <c r="C7" s="36"/>
-      <c r="E7" s="34" t="s">
-        <v>13</v>
-      </c>
-      <c r="F7" s="35"/>
-      <c r="G7" s="36"/>
+      <c r="F7" s="29"/>
+      <c r="G7" s="30"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="C8" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="9" t="s">
-        <v>16</v>
-      </c>
       <c r="E8" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="F8" s="9" t="s">
+      <c r="G8" s="9" t="s">
         <v>15</v>
-      </c>
-      <c r="G8" s="9" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="E9" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F9" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="F9" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G9" s="22" t="s">
-        <v>31</v>
+      <c r="G9" s="32" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
       <c r="E10" s="7"/>
       <c r="F10" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="G10" s="23"/>
+        <v>28</v>
+      </c>
+      <c r="G10" s="33"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="6"/>
@@ -1646,24 +1688,24 @@
       <c r="C11" s="4"/>
       <c r="E11" s="6"/>
       <c r="F11" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="G11" s="24"/>
+        <v>29</v>
+      </c>
+      <c r="G11" s="34"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="E12" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="G12" s="22" t="s">
-        <v>31</v>
+        <v>34</v>
+      </c>
+      <c r="G12" s="32" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
@@ -1671,12 +1713,12 @@
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
       <c r="E13" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="G13" s="23"/>
+        <v>35</v>
+      </c>
+      <c r="G13" s="33"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="6"/>
@@ -1684,22 +1726,22 @@
       <c r="C14" s="4"/>
       <c r="E14" s="6"/>
       <c r="F14" s="4"/>
-      <c r="G14" s="24"/>
+      <c r="G14" s="34"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B15" s="5"/>
       <c r="C15" s="2"/>
       <c r="E15" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="G15" s="22" t="s">
-        <v>31</v>
+        <v>38</v>
+      </c>
+      <c r="G15" s="32" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
@@ -1707,12 +1749,12 @@
       <c r="B16" s="7"/>
       <c r="C16" s="3"/>
       <c r="E16" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G16" s="23"/>
+        <v>39</v>
+      </c>
+      <c r="G16" s="33"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="6"/>
@@ -1720,22 +1762,22 @@
       <c r="C17" s="4"/>
       <c r="E17" s="6"/>
       <c r="F17" s="6"/>
-      <c r="G17" s="24"/>
+      <c r="G17" s="34"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="E18" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="G18" s="22" t="s">
-        <v>32</v>
+        <v>42</v>
+      </c>
+      <c r="G18" s="32" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
@@ -1743,12 +1785,12 @@
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
       <c r="E19" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="G19" s="23"/>
+        <v>43</v>
+      </c>
+      <c r="G19" s="33"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="6"/>
@@ -1756,22 +1798,22 @@
       <c r="C20" s="4"/>
       <c r="E20" s="6"/>
       <c r="F20" s="4"/>
-      <c r="G20" s="24"/>
+      <c r="G20" s="34"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="E21" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="G21" s="25" t="s">
-        <v>49</v>
+        <v>46</v>
+      </c>
+      <c r="G21" s="35" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
@@ -1779,12 +1821,12 @@
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
       <c r="E22" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="G22" s="26"/>
+        <v>47</v>
+      </c>
+      <c r="G22" s="36"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="6"/>
@@ -1792,22 +1834,22 @@
       <c r="C23" s="4"/>
       <c r="E23" s="6"/>
       <c r="F23" s="4"/>
-      <c r="G23" s="27"/>
+      <c r="G23" s="37"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="E24" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="G24" s="22" t="s">
-        <v>31</v>
+        <v>51</v>
+      </c>
+      <c r="G24" s="32" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
@@ -1815,12 +1857,12 @@
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
       <c r="E25" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="G25" s="23"/>
+        <v>52</v>
+      </c>
+      <c r="G25" s="33"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="4"/>
@@ -1828,50 +1870,60 @@
       <c r="C26" s="4"/>
       <c r="E26" s="4"/>
       <c r="F26" s="4"/>
-      <c r="G26" s="24"/>
+      <c r="G26" s="34"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B27" s="16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C27" s="17"/>
       <c r="E27" s="13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F27" s="16" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G27" s="17"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="14"/>
       <c r="B28" s="18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C28" s="19"/>
       <c r="E28" s="14"/>
       <c r="F28" s="18" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G28" s="19"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="15"/>
       <c r="B29" s="20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C29" s="21"/>
       <c r="E29" s="15"/>
       <c r="F29" s="20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G29" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="E27:E29"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="G9:G11"/>
+    <mergeCell ref="G12:G14"/>
+    <mergeCell ref="G15:G17"/>
+    <mergeCell ref="G18:G20"/>
+    <mergeCell ref="G21:G23"/>
+    <mergeCell ref="G24:G26"/>
     <mergeCell ref="A27:A29"/>
     <mergeCell ref="B27:C27"/>
     <mergeCell ref="B28:C28"/>
@@ -1888,16 +1940,6 @@
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="A7:C7"/>
-    <mergeCell ref="E27:E29"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="G9:G11"/>
-    <mergeCell ref="G12:G14"/>
-    <mergeCell ref="G15:G17"/>
-    <mergeCell ref="G18:G20"/>
-    <mergeCell ref="G21:G23"/>
-    <mergeCell ref="G24:G26"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1924,7 +1966,7 @@
   <sheetData>
     <row r="2" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.3">
@@ -1932,7 +1974,7 @@
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B4" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.3">
@@ -1940,13 +1982,13 @@
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B6" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C6" t="s">
+        <v>72</v>
+      </c>
+      <c r="D6" t="s">
         <v>73</v>
-      </c>
-      <c r="D6" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.3">
@@ -1957,7 +1999,7 @@
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B9" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.3">
@@ -1965,7 +2007,7 @@
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B11" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.3">
@@ -1973,7 +2015,7 @@
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B13" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.3">
@@ -1981,13 +2023,13 @@
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B15" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C15" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D15" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="16" spans="2:4" x14ac:dyDescent="0.3">
@@ -1998,7 +2040,7 @@
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B18" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="19" spans="2:2" x14ac:dyDescent="0.3">
@@ -2006,92 +2048,92 @@
     </row>
     <row r="20" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="22" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="24" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B24" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="26" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="28" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B28" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="30" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B30" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="32" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B32" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="34" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B34" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="36" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B36" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="38" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B38" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="40" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B40" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="42" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B42" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="44" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B44" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="46" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B46" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="48" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B48" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="50" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B50" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="52" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B52" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="54" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B54" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>
@@ -2112,31 +2154,44 @@
   <sheetData>
     <row r="2" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/ToDoList.xlsx
+++ b/ToDoList.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\02_GitRepoTortoise\01_Doc\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\works\04_Git\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{641D4C3F-B857-40EA-AA61-038EF54AF124}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ToDo" sheetId="1" r:id="rId1"/>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="128">
   <si>
     <t>Task1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -442,10 +443,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>API(GT) include Qt5 test</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>C언어 코딩도장(H)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -498,14 +495,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Qt5EmulatorR2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>basic, using git</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Cake</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -542,13 +531,21 @@
   </si>
   <si>
     <t>GitLab Repository(Delete GitHub)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ALD API design</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>without UDP, etc</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -828,6 +825,24 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -857,24 +872,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1155,11 +1152,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:G35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1172,7 +1169,7 @@
         <v>96</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>4</v>
@@ -1181,10 +1178,10 @@
         <v>95</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="5.25" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1196,16 +1193,16 @@
         <v>97</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>5</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G4" s="2"/>
     </row>
@@ -1215,16 +1212,16 @@
         <v>102</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>6</v>
       </c>
       <c r="E5" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="F5" s="3" t="s">
         <v>114</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>115</v>
       </c>
       <c r="G5" s="3"/>
     </row>
@@ -1234,12 +1231,12 @@
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="2" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G6" s="2"/>
     </row>
@@ -1247,7 +1244,7 @@
       <c r="A7" s="12"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
@@ -1263,7 +1260,7 @@
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
       <c r="F8" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G8" s="3"/>
     </row>
@@ -1313,7 +1310,9 @@
       <c r="A16" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B16" s="2"/>
+      <c r="B16" s="2" t="s">
+        <v>126</v>
+      </c>
       <c r="C16" s="2" t="s">
         <v>98</v>
       </c>
@@ -1324,7 +1323,9 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="12"/>
-      <c r="B17" s="4"/>
+      <c r="B17" s="4" t="s">
+        <v>127</v>
+      </c>
       <c r="C17" s="3" t="s">
         <v>93</v>
       </c>
@@ -1337,9 +1338,7 @@
       <c r="A18" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B18" s="2" t="s">
-        <v>117</v>
-      </c>
+      <c r="B18" s="2"/>
       <c r="C18" s="2" t="s">
         <v>94</v>
       </c>
@@ -1350,9 +1349,7 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="12"/>
-      <c r="B19" s="3" t="s">
-        <v>118</v>
-      </c>
+      <c r="B19" s="3"/>
       <c r="C19" s="4" t="s">
         <v>99</v>
       </c>
@@ -1365,9 +1362,7 @@
       <c r="A20" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B20" s="2" t="s">
-        <v>61</v>
-      </c>
+      <c r="B20" s="2"/>
       <c r="C20" s="3" t="s">
         <v>100</v>
       </c>
@@ -1378,9 +1373,7 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="12"/>
-      <c r="B21" s="4" t="s">
-        <v>103</v>
-      </c>
+      <c r="B21" s="4"/>
       <c r="C21" s="3" t="s">
         <v>101</v>
       </c>
@@ -1413,7 +1406,7 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B26" s="1" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -1427,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="B28" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C28" s="2" t="s">
         <v>121</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>124</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
@@ -1451,7 +1444,7 @@
         <v>1</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
@@ -1462,7 +1455,7 @@
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="12"/>
       <c r="B31" s="4" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C31" s="4"/>
       <c r="D31" s="4"/>
@@ -1512,11 +1505,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A16:A17"/>
     <mergeCell ref="A34:A35"/>
     <mergeCell ref="A18:A19"/>
     <mergeCell ref="A20:A21"/>
@@ -1524,6 +1512,11 @@
     <mergeCell ref="A28:A29"/>
     <mergeCell ref="A30:A31"/>
     <mergeCell ref="A32:A33"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A16:A17"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1532,7 +1525,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1555,84 +1548,84 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="31" t="s">
+      <c r="A2" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="23"/>
-      <c r="C2" s="24"/>
-      <c r="E2" s="22" t="s">
+      <c r="B2" s="29"/>
+      <c r="C2" s="30"/>
+      <c r="E2" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="23"/>
-      <c r="G2" s="24"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="30"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="26"/>
-      <c r="C3" s="26"/>
+      <c r="B3" s="32"/>
+      <c r="C3" s="32"/>
       <c r="E3" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="25">
+      <c r="F3" s="31">
         <v>43282</v>
       </c>
-      <c r="G3" s="26"/>
+      <c r="G3" s="32"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="26"/>
-      <c r="C4" s="26"/>
+      <c r="B4" s="32"/>
+      <c r="C4" s="32"/>
       <c r="E4" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="26" t="s">
+      <c r="F4" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="G4" s="26"/>
+      <c r="G4" s="32"/>
     </row>
     <row r="5" spans="1:7" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="27"/>
-      <c r="C5" s="27"/>
+      <c r="B5" s="33"/>
+      <c r="C5" s="33"/>
       <c r="E5" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="27" t="s">
+      <c r="F5" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="G5" s="27"/>
+      <c r="G5" s="33"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="26"/>
-      <c r="C6" s="26"/>
+      <c r="B6" s="32"/>
+      <c r="C6" s="32"/>
       <c r="E6" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="26" t="s">
+      <c r="F6" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="G6" s="26"/>
+      <c r="G6" s="32"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="28" t="s">
+      <c r="A7" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="29"/>
-      <c r="C7" s="30"/>
-      <c r="E7" s="28" t="s">
+      <c r="B7" s="35"/>
+      <c r="C7" s="36"/>
+      <c r="E7" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="F7" s="29"/>
-      <c r="G7" s="30"/>
+      <c r="F7" s="35"/>
+      <c r="G7" s="36"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="8" t="s">
@@ -1666,7 +1659,7 @@
       <c r="F9" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="G9" s="32" t="s">
+      <c r="G9" s="22" t="s">
         <v>30</v>
       </c>
     </row>
@@ -1680,7 +1673,7 @@
       <c r="F10" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="G10" s="33"/>
+      <c r="G10" s="23"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="6"/>
@@ -1690,7 +1683,7 @@
       <c r="F11" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="G11" s="34"/>
+      <c r="G11" s="24"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
@@ -1704,7 +1697,7 @@
       <c r="F12" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="G12" s="32" t="s">
+      <c r="G12" s="22" t="s">
         <v>30</v>
       </c>
     </row>
@@ -1718,7 +1711,7 @@
       <c r="F13" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="G13" s="33"/>
+      <c r="G13" s="23"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="6"/>
@@ -1726,7 +1719,7 @@
       <c r="C14" s="4"/>
       <c r="E14" s="6"/>
       <c r="F14" s="4"/>
-      <c r="G14" s="34"/>
+      <c r="G14" s="24"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
@@ -1740,7 +1733,7 @@
       <c r="F15" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="G15" s="32" t="s">
+      <c r="G15" s="22" t="s">
         <v>30</v>
       </c>
     </row>
@@ -1754,7 +1747,7 @@
       <c r="F16" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="G16" s="33"/>
+      <c r="G16" s="23"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="6"/>
@@ -1762,7 +1755,7 @@
       <c r="C17" s="4"/>
       <c r="E17" s="6"/>
       <c r="F17" s="6"/>
-      <c r="G17" s="34"/>
+      <c r="G17" s="24"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
@@ -1776,7 +1769,7 @@
       <c r="F18" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="G18" s="32" t="s">
+      <c r="G18" s="22" t="s">
         <v>31</v>
       </c>
     </row>
@@ -1790,7 +1783,7 @@
       <c r="F19" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="G19" s="33"/>
+      <c r="G19" s="23"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="6"/>
@@ -1798,7 +1791,7 @@
       <c r="C20" s="4"/>
       <c r="E20" s="6"/>
       <c r="F20" s="4"/>
-      <c r="G20" s="34"/>
+      <c r="G20" s="24"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
@@ -1812,7 +1805,7 @@
       <c r="F21" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="G21" s="35" t="s">
+      <c r="G21" s="25" t="s">
         <v>48</v>
       </c>
     </row>
@@ -1826,7 +1819,7 @@
       <c r="F22" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="G22" s="36"/>
+      <c r="G22" s="26"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="6"/>
@@ -1834,7 +1827,7 @@
       <c r="C23" s="4"/>
       <c r="E23" s="6"/>
       <c r="F23" s="4"/>
-      <c r="G23" s="37"/>
+      <c r="G23" s="27"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="5" t="s">
@@ -1848,7 +1841,7 @@
       <c r="F24" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="G24" s="32" t="s">
+      <c r="G24" s="22" t="s">
         <v>30</v>
       </c>
     </row>
@@ -1862,7 +1855,7 @@
       <c r="F25" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="G25" s="33"/>
+      <c r="G25" s="23"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="4"/>
@@ -1870,7 +1863,7 @@
       <c r="C26" s="4"/>
       <c r="E26" s="4"/>
       <c r="F26" s="4"/>
-      <c r="G26" s="34"/>
+      <c r="G26" s="24"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="13" t="s">
@@ -1914,16 +1907,6 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="E27:E29"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="G9:G11"/>
-    <mergeCell ref="G12:G14"/>
-    <mergeCell ref="G15:G17"/>
-    <mergeCell ref="G18:G20"/>
-    <mergeCell ref="G21:G23"/>
-    <mergeCell ref="G24:G26"/>
     <mergeCell ref="A27:A29"/>
     <mergeCell ref="B27:C27"/>
     <mergeCell ref="B28:C28"/>
@@ -1940,6 +1923,16 @@
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="A7:C7"/>
+    <mergeCell ref="E27:E29"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="G9:G11"/>
+    <mergeCell ref="G12:G14"/>
+    <mergeCell ref="G15:G17"/>
+    <mergeCell ref="G18:G20"/>
+    <mergeCell ref="G21:G23"/>
+    <mergeCell ref="G24:G26"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1951,7 +1944,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B2:D54"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -2143,7 +2136,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B2:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2154,27 +2147,27 @@
   <sheetData>
     <row r="2" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
   </sheetData>
@@ -2184,7 +2177,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/ToDoList.xlsx
+++ b/ToDoList.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\works\04_Git\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\02_GitRepoTortoise\01_Doc\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{641D4C3F-B857-40EA-AA61-038EF54AF124}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="ToDo" sheetId="1" r:id="rId1"/>
@@ -29,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="131">
   <si>
     <t>Task1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -539,13 +538,25 @@
   </si>
   <si>
     <t>without UDP, etc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>윤성우 열혈 C++ 프로그래밍(H)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>chapter 06</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>friend와 static 그리고 const</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -825,6 +836,36 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -842,36 +883,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1152,11 +1163,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:G35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1300,7 +1311,9 @@
       <c r="C14" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="D14" s="1"/>
+      <c r="D14" s="9" t="s">
+        <v>128</v>
+      </c>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
@@ -1316,7 +1329,9 @@
       <c r="C16" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="D16" s="2"/>
+      <c r="D16" s="2" t="s">
+        <v>129</v>
+      </c>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
@@ -1329,7 +1344,9 @@
       <c r="C17" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="D17" s="3"/>
+      <c r="D17" s="3" t="s">
+        <v>130</v>
+      </c>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
@@ -1505,6 +1522,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A16:A17"/>
     <mergeCell ref="A34:A35"/>
     <mergeCell ref="A18:A19"/>
     <mergeCell ref="A20:A21"/>
@@ -1512,11 +1534,6 @@
     <mergeCell ref="A28:A29"/>
     <mergeCell ref="A30:A31"/>
     <mergeCell ref="A32:A33"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A16:A17"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1525,7 +1542,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1548,84 +1565,84 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="37" t="s">
+      <c r="A2" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="29"/>
-      <c r="C2" s="30"/>
-      <c r="E2" s="28" t="s">
+      <c r="B2" s="23"/>
+      <c r="C2" s="24"/>
+      <c r="E2" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="29"/>
-      <c r="G2" s="30"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="24"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="32"/>
-      <c r="C3" s="32"/>
+      <c r="B3" s="26"/>
+      <c r="C3" s="26"/>
       <c r="E3" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="31">
+      <c r="F3" s="25">
         <v>43282</v>
       </c>
-      <c r="G3" s="32"/>
+      <c r="G3" s="26"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="32"/>
-      <c r="C4" s="32"/>
+      <c r="B4" s="26"/>
+      <c r="C4" s="26"/>
       <c r="E4" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="32" t="s">
+      <c r="F4" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="G4" s="32"/>
+      <c r="G4" s="26"/>
     </row>
     <row r="5" spans="1:7" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="33"/>
-      <c r="C5" s="33"/>
+      <c r="B5" s="27"/>
+      <c r="C5" s="27"/>
       <c r="E5" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="33" t="s">
+      <c r="F5" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="G5" s="33"/>
+      <c r="G5" s="27"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="32"/>
-      <c r="C6" s="32"/>
+      <c r="B6" s="26"/>
+      <c r="C6" s="26"/>
       <c r="E6" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="32" t="s">
+      <c r="F6" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="G6" s="32"/>
+      <c r="G6" s="26"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="34" t="s">
+      <c r="A7" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="35"/>
-      <c r="C7" s="36"/>
-      <c r="E7" s="34" t="s">
+      <c r="B7" s="29"/>
+      <c r="C7" s="30"/>
+      <c r="E7" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="F7" s="35"/>
-      <c r="G7" s="36"/>
+      <c r="F7" s="29"/>
+      <c r="G7" s="30"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="8" t="s">
@@ -1659,7 +1676,7 @@
       <c r="F9" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="G9" s="22" t="s">
+      <c r="G9" s="32" t="s">
         <v>30</v>
       </c>
     </row>
@@ -1673,7 +1690,7 @@
       <c r="F10" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="G10" s="23"/>
+      <c r="G10" s="33"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="6"/>
@@ -1683,7 +1700,7 @@
       <c r="F11" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="G11" s="24"/>
+      <c r="G11" s="34"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
@@ -1697,7 +1714,7 @@
       <c r="F12" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="G12" s="22" t="s">
+      <c r="G12" s="32" t="s">
         <v>30</v>
       </c>
     </row>
@@ -1711,7 +1728,7 @@
       <c r="F13" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="G13" s="23"/>
+      <c r="G13" s="33"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="6"/>
@@ -1719,7 +1736,7 @@
       <c r="C14" s="4"/>
       <c r="E14" s="6"/>
       <c r="F14" s="4"/>
-      <c r="G14" s="24"/>
+      <c r="G14" s="34"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
@@ -1733,7 +1750,7 @@
       <c r="F15" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="G15" s="22" t="s">
+      <c r="G15" s="32" t="s">
         <v>30</v>
       </c>
     </row>
@@ -1747,7 +1764,7 @@
       <c r="F16" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="G16" s="23"/>
+      <c r="G16" s="33"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="6"/>
@@ -1755,7 +1772,7 @@
       <c r="C17" s="4"/>
       <c r="E17" s="6"/>
       <c r="F17" s="6"/>
-      <c r="G17" s="24"/>
+      <c r="G17" s="34"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
@@ -1769,7 +1786,7 @@
       <c r="F18" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="G18" s="22" t="s">
+      <c r="G18" s="32" t="s">
         <v>31</v>
       </c>
     </row>
@@ -1783,7 +1800,7 @@
       <c r="F19" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="G19" s="23"/>
+      <c r="G19" s="33"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="6"/>
@@ -1791,7 +1808,7 @@
       <c r="C20" s="4"/>
       <c r="E20" s="6"/>
       <c r="F20" s="4"/>
-      <c r="G20" s="24"/>
+      <c r="G20" s="34"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
@@ -1805,7 +1822,7 @@
       <c r="F21" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="G21" s="25" t="s">
+      <c r="G21" s="35" t="s">
         <v>48</v>
       </c>
     </row>
@@ -1819,7 +1836,7 @@
       <c r="F22" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="G22" s="26"/>
+      <c r="G22" s="36"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="6"/>
@@ -1827,7 +1844,7 @@
       <c r="C23" s="4"/>
       <c r="E23" s="6"/>
       <c r="F23" s="4"/>
-      <c r="G23" s="27"/>
+      <c r="G23" s="37"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="5" t="s">
@@ -1841,7 +1858,7 @@
       <c r="F24" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="G24" s="22" t="s">
+      <c r="G24" s="32" t="s">
         <v>30</v>
       </c>
     </row>
@@ -1855,7 +1872,7 @@
       <c r="F25" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="G25" s="23"/>
+      <c r="G25" s="33"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="4"/>
@@ -1863,7 +1880,7 @@
       <c r="C26" s="4"/>
       <c r="E26" s="4"/>
       <c r="F26" s="4"/>
-      <c r="G26" s="24"/>
+      <c r="G26" s="34"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="13" t="s">
@@ -1907,6 +1924,16 @@
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="E27:E29"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="G9:G11"/>
+    <mergeCell ref="G12:G14"/>
+    <mergeCell ref="G15:G17"/>
+    <mergeCell ref="G18:G20"/>
+    <mergeCell ref="G21:G23"/>
+    <mergeCell ref="G24:G26"/>
     <mergeCell ref="A27:A29"/>
     <mergeCell ref="B27:C27"/>
     <mergeCell ref="B28:C28"/>
@@ -1923,16 +1950,6 @@
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="A7:C7"/>
-    <mergeCell ref="E27:E29"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="G9:G11"/>
-    <mergeCell ref="G12:G14"/>
-    <mergeCell ref="G15:G17"/>
-    <mergeCell ref="G18:G20"/>
-    <mergeCell ref="G21:G23"/>
-    <mergeCell ref="G24:G26"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1944,7 +1961,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:D54"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -2136,7 +2153,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2177,7 +2194,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/ToDoList.xlsx
+++ b/ToDoList.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\02_GitRepoTortoise\01_Doc\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\02_Doc\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -442,10 +442,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>C언어 코딩도장(H)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>문제 해결 방법</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -518,21 +514,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Unit6. 디버거 사용하기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6.1 중단점 사용하기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>D:\work\01_Book\02_C</t>
-  </si>
-  <si>
-    <t>GitLab Repository(Delete GitHub)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ALD API design</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -550,6 +531,26 @@
   </si>
   <si>
     <t>friend와 static 그리고 const</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Unit8. 실수 자료형 사용하기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8.2 자료형 크기 구하기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C언어 코딩도장</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Linux ST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>available PC or virtual box</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -590,7 +591,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -618,6 +619,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -769,7 +776,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -804,6 +811,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1167,7 +1177,7 @@
   <dimension ref="A2:G35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1179,8 +1189,8 @@
       <c r="B2" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="C2" s="9" t="s">
-        <v>103</v>
+      <c r="C2" s="12" t="s">
+        <v>128</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>4</v>
@@ -1189,81 +1199,77 @@
         <v>95</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>116</v>
+        <v>108</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="5.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="13" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>97</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>5</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G4" s="2"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="12"/>
+      <c r="A5" s="13"/>
       <c r="B5" s="4" t="s">
         <v>102</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>6</v>
       </c>
       <c r="E5" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="F5" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="F5" s="3" t="s">
-        <v>114</v>
-      </c>
       <c r="G5" s="3"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="12" t="s">
+      <c r="A6" s="13" t="s">
         <v>1</v>
       </c>
       <c r="B6" s="2"/>
-      <c r="C6" s="2" t="s">
-        <v>125</v>
-      </c>
+      <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G6" s="2"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="12"/>
+      <c r="A7" s="13"/>
       <c r="B7" s="4"/>
-      <c r="C7" s="4" t="s">
-        <v>124</v>
-      </c>
+      <c r="C7" s="4"/>
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="12" t="s">
+      <c r="A8" s="13" t="s">
         <v>2</v>
       </c>
       <c r="B8" s="3"/>
@@ -1271,12 +1277,12 @@
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
       <c r="F8" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G8" s="3"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="12"/>
+      <c r="A9" s="13"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
@@ -1285,7 +1291,7 @@
       <c r="G9" s="3"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="12" t="s">
+      <c r="A10" s="13" t="s">
         <v>3</v>
       </c>
       <c r="B10" s="2"/>
@@ -1296,7 +1302,7 @@
       <c r="G10" s="2"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="12"/>
+      <c r="A11" s="13"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
@@ -1312,7 +1318,7 @@
         <v>92</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
@@ -1320,39 +1326,39 @@
     </row>
     <row r="15" spans="1:7" ht="5.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="12" t="s">
+      <c r="A16" s="13" t="s">
         <v>0</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>98</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="12"/>
+      <c r="A17" s="13"/>
       <c r="B17" s="4" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>93</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" s="12" t="s">
+      <c r="A18" s="13" t="s">
         <v>1</v>
       </c>
       <c r="B18" s="2"/>
@@ -1365,7 +1371,7 @@
       <c r="G18" s="2"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" s="12"/>
+      <c r="A19" s="13"/>
       <c r="B19" s="3"/>
       <c r="C19" s="4" t="s">
         <v>99</v>
@@ -1376,7 +1382,7 @@
       <c r="G19" s="4"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" s="12" t="s">
+      <c r="A20" s="13" t="s">
         <v>2</v>
       </c>
       <c r="B20" s="2"/>
@@ -1389,7 +1395,7 @@
       <c r="G20" s="3"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21" s="12"/>
+      <c r="A21" s="13"/>
       <c r="B21" s="4"/>
       <c r="C21" s="3" t="s">
         <v>101</v>
@@ -1400,7 +1406,7 @@
       <c r="G21" s="3"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22" s="12" t="s">
+      <c r="A22" s="13" t="s">
         <v>3</v>
       </c>
       <c r="B22" s="3" t="s">
@@ -1413,7 +1419,7 @@
       <c r="G22" s="2"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23" s="12"/>
+      <c r="A23" s="13"/>
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
       <c r="D23" s="4"/>
@@ -1423,7 +1429,7 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B26" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -1433,14 +1439,14 @@
     </row>
     <row r="27" spans="1:7" ht="5.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A28" s="12" t="s">
+      <c r="A28" s="13" t="s">
         <v>0</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
@@ -1448,7 +1454,7 @@
       <c r="G28" s="2"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A29" s="12"/>
+      <c r="A29" s="13"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
@@ -1457,11 +1463,11 @@
       <c r="G29" s="3"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A30" s="12" t="s">
+      <c r="A30" s="13" t="s">
         <v>1</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
@@ -1470,9 +1476,9 @@
       <c r="G30" s="2"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A31" s="12"/>
+      <c r="A31" s="13"/>
       <c r="B31" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C31" s="4"/>
       <c r="D31" s="4"/>
@@ -1481,10 +1487,12 @@
       <c r="G31" s="4"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A32" s="12" t="s">
+      <c r="A32" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="B32" s="3"/>
+      <c r="B32" s="3" t="s">
+        <v>129</v>
+      </c>
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
       <c r="E32" s="3"/>
@@ -1492,8 +1500,10 @@
       <c r="G32" s="3"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A33" s="12"/>
-      <c r="B33" s="3"/>
+      <c r="A33" s="13"/>
+      <c r="B33" s="3" t="s">
+        <v>130</v>
+      </c>
       <c r="C33" s="3"/>
       <c r="D33" s="3"/>
       <c r="E33" s="3"/>
@@ -1501,7 +1511,7 @@
       <c r="G33" s="3"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A34" s="12" t="s">
+      <c r="A34" s="13" t="s">
         <v>3</v>
       </c>
       <c r="B34" s="2"/>
@@ -1512,7 +1522,7 @@
       <c r="G34" s="2"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A35" s="12"/>
+      <c r="A35" s="13"/>
       <c r="B35" s="4"/>
       <c r="C35" s="4"/>
       <c r="D35" s="4"/>
@@ -1565,84 +1575,84 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="31" t="s">
+      <c r="A2" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="23"/>
-      <c r="C2" s="24"/>
-      <c r="E2" s="22" t="s">
+      <c r="B2" s="24"/>
+      <c r="C2" s="25"/>
+      <c r="E2" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="23"/>
-      <c r="G2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="25"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="26"/>
-      <c r="C3" s="26"/>
+      <c r="B3" s="27"/>
+      <c r="C3" s="27"/>
       <c r="E3" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="25">
+      <c r="F3" s="26">
         <v>43282</v>
       </c>
-      <c r="G3" s="26"/>
+      <c r="G3" s="27"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="26"/>
-      <c r="C4" s="26"/>
+      <c r="B4" s="27"/>
+      <c r="C4" s="27"/>
       <c r="E4" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="26" t="s">
+      <c r="F4" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="G4" s="26"/>
+      <c r="G4" s="27"/>
     </row>
     <row r="5" spans="1:7" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="27"/>
-      <c r="C5" s="27"/>
+      <c r="B5" s="28"/>
+      <c r="C5" s="28"/>
       <c r="E5" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="27" t="s">
+      <c r="F5" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="G5" s="27"/>
+      <c r="G5" s="28"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="26"/>
-      <c r="C6" s="26"/>
+      <c r="B6" s="27"/>
+      <c r="C6" s="27"/>
       <c r="E6" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="26" t="s">
+      <c r="F6" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="G6" s="26"/>
+      <c r="G6" s="27"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="28" t="s">
+      <c r="A7" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="29"/>
-      <c r="C7" s="30"/>
-      <c r="E7" s="28" t="s">
+      <c r="B7" s="30"/>
+      <c r="C7" s="31"/>
+      <c r="E7" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="F7" s="29"/>
-      <c r="G7" s="30"/>
+      <c r="F7" s="30"/>
+      <c r="G7" s="31"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="8" t="s">
@@ -1676,7 +1686,7 @@
       <c r="F9" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="G9" s="32" t="s">
+      <c r="G9" s="33" t="s">
         <v>30</v>
       </c>
     </row>
@@ -1690,7 +1700,7 @@
       <c r="F10" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="G10" s="33"/>
+      <c r="G10" s="34"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="6"/>
@@ -1700,7 +1710,7 @@
       <c r="F11" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="G11" s="34"/>
+      <c r="G11" s="35"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
@@ -1714,7 +1724,7 @@
       <c r="F12" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="G12" s="32" t="s">
+      <c r="G12" s="33" t="s">
         <v>30</v>
       </c>
     </row>
@@ -1728,7 +1738,7 @@
       <c r="F13" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="G13" s="33"/>
+      <c r="G13" s="34"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="6"/>
@@ -1736,7 +1746,7 @@
       <c r="C14" s="4"/>
       <c r="E14" s="6"/>
       <c r="F14" s="4"/>
-      <c r="G14" s="34"/>
+      <c r="G14" s="35"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
@@ -1750,7 +1760,7 @@
       <c r="F15" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="G15" s="32" t="s">
+      <c r="G15" s="33" t="s">
         <v>30</v>
       </c>
     </row>
@@ -1764,7 +1774,7 @@
       <c r="F16" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="G16" s="33"/>
+      <c r="G16" s="34"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="6"/>
@@ -1772,7 +1782,7 @@
       <c r="C17" s="4"/>
       <c r="E17" s="6"/>
       <c r="F17" s="6"/>
-      <c r="G17" s="34"/>
+      <c r="G17" s="35"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
@@ -1786,7 +1796,7 @@
       <c r="F18" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="G18" s="32" t="s">
+      <c r="G18" s="33" t="s">
         <v>31</v>
       </c>
     </row>
@@ -1800,7 +1810,7 @@
       <c r="F19" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="G19" s="33"/>
+      <c r="G19" s="34"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="6"/>
@@ -1808,7 +1818,7 @@
       <c r="C20" s="4"/>
       <c r="E20" s="6"/>
       <c r="F20" s="4"/>
-      <c r="G20" s="34"/>
+      <c r="G20" s="35"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
@@ -1822,7 +1832,7 @@
       <c r="F21" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="G21" s="35" t="s">
+      <c r="G21" s="36" t="s">
         <v>48</v>
       </c>
     </row>
@@ -1836,7 +1846,7 @@
       <c r="F22" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="G22" s="36"/>
+      <c r="G22" s="37"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="6"/>
@@ -1844,7 +1854,7 @@
       <c r="C23" s="4"/>
       <c r="E23" s="6"/>
       <c r="F23" s="4"/>
-      <c r="G23" s="37"/>
+      <c r="G23" s="38"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="5" t="s">
@@ -1858,7 +1868,7 @@
       <c r="F24" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="G24" s="32" t="s">
+      <c r="G24" s="33" t="s">
         <v>30</v>
       </c>
     </row>
@@ -1872,7 +1882,7 @@
       <c r="F25" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="G25" s="33"/>
+      <c r="G25" s="34"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="4"/>
@@ -1880,47 +1890,47 @@
       <c r="C26" s="4"/>
       <c r="E26" s="4"/>
       <c r="F26" s="4"/>
-      <c r="G26" s="34"/>
+      <c r="G26" s="35"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A27" s="13" t="s">
+      <c r="A27" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="B27" s="16" t="s">
+      <c r="B27" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="C27" s="17"/>
-      <c r="E27" s="13" t="s">
+      <c r="C27" s="18"/>
+      <c r="E27" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="F27" s="16" t="s">
+      <c r="F27" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="G27" s="17"/>
+      <c r="G27" s="18"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A28" s="14"/>
-      <c r="B28" s="18" t="s">
+      <c r="A28" s="15"/>
+      <c r="B28" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="C28" s="19"/>
-      <c r="E28" s="14"/>
-      <c r="F28" s="18" t="s">
+      <c r="C28" s="20"/>
+      <c r="E28" s="15"/>
+      <c r="F28" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="G28" s="19"/>
+      <c r="G28" s="20"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A29" s="15"/>
-      <c r="B29" s="20" t="s">
+      <c r="A29" s="16"/>
+      <c r="B29" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="C29" s="21"/>
-      <c r="E29" s="15"/>
-      <c r="F29" s="20" t="s">
+      <c r="C29" s="22"/>
+      <c r="E29" s="16"/>
+      <c r="F29" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="G29" s="21"/>
+      <c r="G29" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="26">
@@ -2164,27 +2174,27 @@
   <sheetData>
     <row r="2" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
   </sheetData>

--- a/ToDoList.xlsx
+++ b/ToDoList.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\02_Doc\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\03_doc\01_doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="135">
   <si>
     <t>Task1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -551,6 +551,22 @@
   </si>
   <si>
     <t>available PC or virtual box</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lint(Linter)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fortify</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cppcheck</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ReSharper</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -846,6 +862,24 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -875,24 +909,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1174,10 +1190,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:G35"/>
+  <dimension ref="A2:G41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1530,13 +1546,28 @@
       <c r="F35" s="4"/>
       <c r="G35" s="4"/>
     </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B38" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B39" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B40" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B41" t="s">
+        <v>134</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A16:A17"/>
     <mergeCell ref="A34:A35"/>
     <mergeCell ref="A18:A19"/>
     <mergeCell ref="A20:A21"/>
@@ -1544,6 +1575,11 @@
     <mergeCell ref="A28:A29"/>
     <mergeCell ref="A30:A31"/>
     <mergeCell ref="A32:A33"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A16:A17"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1575,84 +1611,84 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="32" t="s">
+      <c r="A2" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="24"/>
-      <c r="C2" s="25"/>
-      <c r="E2" s="23" t="s">
+      <c r="B2" s="30"/>
+      <c r="C2" s="31"/>
+      <c r="E2" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="24"/>
-      <c r="G2" s="25"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="31"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="27"/>
-      <c r="C3" s="27"/>
+      <c r="B3" s="33"/>
+      <c r="C3" s="33"/>
       <c r="E3" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="26">
+      <c r="F3" s="32">
         <v>43282</v>
       </c>
-      <c r="G3" s="27"/>
+      <c r="G3" s="33"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="27"/>
-      <c r="C4" s="27"/>
+      <c r="B4" s="33"/>
+      <c r="C4" s="33"/>
       <c r="E4" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="27" t="s">
+      <c r="F4" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="G4" s="27"/>
+      <c r="G4" s="33"/>
     </row>
     <row r="5" spans="1:7" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="28"/>
-      <c r="C5" s="28"/>
+      <c r="B5" s="34"/>
+      <c r="C5" s="34"/>
       <c r="E5" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="28" t="s">
+      <c r="F5" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="G5" s="28"/>
+      <c r="G5" s="34"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="27"/>
-      <c r="C6" s="27"/>
+      <c r="B6" s="33"/>
+      <c r="C6" s="33"/>
       <c r="E6" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="27" t="s">
+      <c r="F6" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="G6" s="27"/>
+      <c r="G6" s="33"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="29" t="s">
+      <c r="A7" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="30"/>
-      <c r="C7" s="31"/>
-      <c r="E7" s="29" t="s">
+      <c r="B7" s="36"/>
+      <c r="C7" s="37"/>
+      <c r="E7" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="F7" s="30"/>
-      <c r="G7" s="31"/>
+      <c r="F7" s="36"/>
+      <c r="G7" s="37"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="8" t="s">
@@ -1686,7 +1722,7 @@
       <c r="F9" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="G9" s="33" t="s">
+      <c r="G9" s="23" t="s">
         <v>30</v>
       </c>
     </row>
@@ -1700,7 +1736,7 @@
       <c r="F10" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="G10" s="34"/>
+      <c r="G10" s="24"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="6"/>
@@ -1710,7 +1746,7 @@
       <c r="F11" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="G11" s="35"/>
+      <c r="G11" s="25"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
@@ -1724,7 +1760,7 @@
       <c r="F12" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="G12" s="33" t="s">
+      <c r="G12" s="23" t="s">
         <v>30</v>
       </c>
     </row>
@@ -1738,7 +1774,7 @@
       <c r="F13" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="G13" s="34"/>
+      <c r="G13" s="24"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="6"/>
@@ -1746,7 +1782,7 @@
       <c r="C14" s="4"/>
       <c r="E14" s="6"/>
       <c r="F14" s="4"/>
-      <c r="G14" s="35"/>
+      <c r="G14" s="25"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
@@ -1760,7 +1796,7 @@
       <c r="F15" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="G15" s="33" t="s">
+      <c r="G15" s="23" t="s">
         <v>30</v>
       </c>
     </row>
@@ -1774,7 +1810,7 @@
       <c r="F16" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="G16" s="34"/>
+      <c r="G16" s="24"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="6"/>
@@ -1782,7 +1818,7 @@
       <c r="C17" s="4"/>
       <c r="E17" s="6"/>
       <c r="F17" s="6"/>
-      <c r="G17" s="35"/>
+      <c r="G17" s="25"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
@@ -1796,7 +1832,7 @@
       <c r="F18" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="G18" s="33" t="s">
+      <c r="G18" s="23" t="s">
         <v>31</v>
       </c>
     </row>
@@ -1810,7 +1846,7 @@
       <c r="F19" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="G19" s="34"/>
+      <c r="G19" s="24"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="6"/>
@@ -1818,7 +1854,7 @@
       <c r="C20" s="4"/>
       <c r="E20" s="6"/>
       <c r="F20" s="4"/>
-      <c r="G20" s="35"/>
+      <c r="G20" s="25"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
@@ -1832,7 +1868,7 @@
       <c r="F21" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="G21" s="36" t="s">
+      <c r="G21" s="26" t="s">
         <v>48</v>
       </c>
     </row>
@@ -1846,7 +1882,7 @@
       <c r="F22" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="G22" s="37"/>
+      <c r="G22" s="27"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="6"/>
@@ -1854,7 +1890,7 @@
       <c r="C23" s="4"/>
       <c r="E23" s="6"/>
       <c r="F23" s="4"/>
-      <c r="G23" s="38"/>
+      <c r="G23" s="28"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="5" t="s">
@@ -1868,7 +1904,7 @@
       <c r="F24" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="G24" s="33" t="s">
+      <c r="G24" s="23" t="s">
         <v>30</v>
       </c>
     </row>
@@ -1882,7 +1918,7 @@
       <c r="F25" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="G25" s="34"/>
+      <c r="G25" s="24"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="4"/>
@@ -1890,7 +1926,7 @@
       <c r="C26" s="4"/>
       <c r="E26" s="4"/>
       <c r="F26" s="4"/>
-      <c r="G26" s="35"/>
+      <c r="G26" s="25"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="14" t="s">
@@ -1934,16 +1970,6 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="E27:E29"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="G9:G11"/>
-    <mergeCell ref="G12:G14"/>
-    <mergeCell ref="G15:G17"/>
-    <mergeCell ref="G18:G20"/>
-    <mergeCell ref="G21:G23"/>
-    <mergeCell ref="G24:G26"/>
     <mergeCell ref="A27:A29"/>
     <mergeCell ref="B27:C27"/>
     <mergeCell ref="B28:C28"/>
@@ -1960,6 +1986,16 @@
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="A7:C7"/>
+    <mergeCell ref="E27:E29"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="G9:G11"/>
+    <mergeCell ref="G12:G14"/>
+    <mergeCell ref="G15:G17"/>
+    <mergeCell ref="G18:G20"/>
+    <mergeCell ref="G21:G23"/>
+    <mergeCell ref="G24:G26"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
